--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF796196-6950-4C9E-B7B0-A3EABEDC3AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28127432-8A75-47BA-AC7A-EC5553E8E53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{27DE1AD4-C3A1-49ED-BBBC-B59C1C3E1A78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="1" xr2:uid="{27DE1AD4-C3A1-49ED-BBBC-B59C1C3E1A78}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>City</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Eine Postleitzahl wird benötigt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>Country code</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A856D1D0-AC13-4482-816F-C6D9365F83AB}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,6 +660,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -658,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDAEB0-85CE-42DD-A976-DD4575ED3F45}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,6 +823,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28127432-8A75-47BA-AC7A-EC5553E8E53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F342F1-708A-4CE6-90A7-8E9BB5894835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="1" xr2:uid="{27DE1AD4-C3A1-49ED-BBBC-B59C1C3E1A78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{27DE1AD4-C3A1-49ED-BBBC-B59C1C3E1A78}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>City</t>
   </si>
@@ -159,13 +159,31 @@
     <t>Eine Postleitzahl wird benötigt</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>CountryCode</t>
   </si>
   <si>
     <t>Country code</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>Country name</t>
+  </si>
+  <si>
+    <t>CountryRequired</t>
+  </si>
+  <si>
+    <t>A country is required</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Ländercode</t>
+  </si>
+  <si>
+    <t>Ein Land wird benötigt</t>
   </si>
 </sst>
 </file>
@@ -520,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A856D1D0-AC13-4482-816F-C6D9365F83AB}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,18 +680,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDAEB0-85CE-42DD-A976-DD4575ED3F45}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,18 +851,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F342F1-708A-4CE6-90A7-8E9BB5894835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{27DE1AD4-C3A1-49ED-BBBC-B59C1C3E1A78}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
     <sheet name="de" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">de!$A$1:$B$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">en!$A$1:$B$20</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>City</t>
   </si>
@@ -84,15 +87,9 @@
     <t>StreetNo</t>
   </si>
   <si>
-    <t>Street number</t>
-  </si>
-  <si>
     <t>StreetNoRequired</t>
   </si>
   <si>
-    <t>A street number is required</t>
-  </si>
-  <si>
     <t>StreetRequired</t>
   </si>
   <si>
@@ -162,15 +159,9 @@
     <t>CountryCode</t>
   </si>
   <si>
-    <t>Country code</t>
-  </si>
-  <si>
     <t>CountryName</t>
   </si>
   <si>
-    <t>Country name</t>
-  </si>
-  <si>
     <t>CountryRequired</t>
   </si>
   <si>
@@ -180,16 +171,40 @@
     <t>Land</t>
   </si>
   <si>
-    <t>Ländercode</t>
-  </si>
-  <si>
     <t>Ein Land wird benötigt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>A number is required</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmailRequired</t>
+  </si>
+  <si>
+    <t>Eine Email wird benötigt</t>
+  </si>
+  <si>
+    <t>An email address is required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +241,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,343 +552,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A856D1D0-AC13-4482-816F-C6D9365F83AB}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B20">
+    <sortState ref="A2:B20">
+      <sortCondition ref="A1:A20"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDAEB0-85CE-42DD-A976-DD4575ED3F45}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B20">
+    <sortState ref="A2:B20">
+      <sortCondition ref="A1:A20"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD251A3-2025-4256-A2CA-3A42D04A6E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -24,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>City</t>
   </si>
@@ -199,12 +192,18 @@
   </si>
   <si>
     <t>An email address is required</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Auswählen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +240,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,20 +551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -573,7 +572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -597,7 +596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -605,7 +604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -613,7 +612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -621,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -645,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -661,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -669,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -677,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -693,7 +692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -701,7 +700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -709,7 +708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -717,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -725,7 +724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -733,7 +732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -741,9 +740,17 @@
         <v>53</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B20">
-    <sortState ref="A2:B20">
+  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
       <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>
@@ -752,20 +759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -773,7 +780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -789,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -797,7 +804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -805,7 +812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -813,7 +820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,7 +828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,7 +836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,7 +860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -861,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -869,7 +876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -885,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -893,7 +900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -901,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -909,7 +916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -917,7 +924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -925,7 +932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -933,7 +940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -941,9 +948,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B20">
-    <sortState ref="A2:B20">
+  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
       <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD251A3-2025-4256-A2CA-3A42D04A6E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>City</t>
   </si>
@@ -101,9 +100,6 @@
     <t>A ZIP-Code is required</t>
   </si>
   <si>
-    <t>Stadt</t>
-  </si>
-  <si>
     <t>Eine Stadt wird benötigt</t>
   </si>
   <si>
@@ -143,9 +139,6 @@
     <t>Eine Strasse wird benötigt</t>
   </si>
   <si>
-    <t>Postleitzahl</t>
-  </si>
-  <si>
     <t>Eine Postleitzahl wird benötigt</t>
   </si>
   <si>
@@ -198,12 +191,102 @@
   </si>
   <si>
     <t>Auswählen</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>MobileNumberRequired</t>
+  </si>
+  <si>
+    <t>Slogan</t>
+  </si>
+  <si>
+    <t>SloganRequired</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>PhotoRequired</t>
+  </si>
+  <si>
+    <t>Mobile number</t>
+  </si>
+  <si>
+    <t>A mobile number is required</t>
+  </si>
+  <si>
+    <t>A slogan is required</t>
+  </si>
+  <si>
+    <t>A photo is required</t>
+  </si>
+  <si>
+    <t>Mobiltelefon</t>
+  </si>
+  <si>
+    <t>Ein Mobiltelefon wird benötigt</t>
+  </si>
+  <si>
+    <t>Ein slogan wird benötigt</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Ein Foto wird benötigt</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>LanguageRequired</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>A language is required</t>
+  </si>
+  <si>
+    <t>Eine Sprache wird benötigt</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Herr</t>
+  </si>
+  <si>
+    <t>Mister</t>
+  </si>
+  <si>
+    <t>Frau</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Mr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +323,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,28 +634,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,169 +671,257 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+  <autoFilter ref="A1:B20">
+    <sortState ref="A2:B29">
       <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>
@@ -759,206 +930,294 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+  <autoFilter ref="A1:B20">
+    <sortState ref="A2:B29">
       <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
     <sheet name="de" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">de!$A$1:$B$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">en!$A$1:$B$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">de!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">en!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,35 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>CityRequired</t>
-  </si>
-  <si>
-    <t>A city is required</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
-    <t>FirstnameRequired</t>
-  </si>
-  <si>
-    <t>A firstname is required</t>
-  </si>
-  <si>
     <t>Lastname</t>
   </si>
   <si>
-    <t>LastnameRequired</t>
-  </si>
-  <si>
-    <t>A lastname is required</t>
-  </si>
-  <si>
     <t>Manage</t>
   </si>
   <si>
@@ -67,54 +49,24 @@
     <t>State</t>
   </si>
   <si>
-    <t>StateRequired</t>
-  </si>
-  <si>
-    <t>A state is required</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
     <t>StreetNo</t>
   </si>
   <si>
-    <t>StreetNoRequired</t>
-  </si>
-  <si>
-    <t>StreetRequired</t>
-  </si>
-  <si>
-    <t>A street is required</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
     <t>ZIP-Code</t>
   </si>
   <si>
-    <t>ZipCodeRequired</t>
-  </si>
-  <si>
-    <t>A ZIP-Code is required</t>
-  </si>
-  <si>
-    <t>Eine Stadt wird benötigt</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
-    <t>Ein Vorname wird benötigt</t>
-  </si>
-  <si>
     <t>Nachname</t>
   </si>
   <si>
-    <t>Ein Nachname wird benötigt</t>
-  </si>
-  <si>
     <t>Ändern</t>
   </si>
   <si>
@@ -124,42 +76,21 @@
     <t>Kanton / Bundesland</t>
   </si>
   <si>
-    <t>Ein Kanton / Bundesland wird benötigt</t>
-  </si>
-  <si>
     <t>Strasse</t>
   </si>
   <si>
     <t>Nr.</t>
   </si>
   <si>
-    <t>Eine Nr. wird benötigt</t>
-  </si>
-  <si>
-    <t>Eine Strasse wird benötigt</t>
-  </si>
-  <si>
-    <t>Eine Postleitzahl wird benötigt</t>
-  </si>
-  <si>
     <t>CountryCode</t>
   </si>
   <si>
     <t>CountryName</t>
   </si>
   <si>
-    <t>CountryRequired</t>
-  </si>
-  <si>
-    <t>A country is required</t>
-  </si>
-  <si>
     <t>Land</t>
   </si>
   <si>
-    <t>Ein Land wird benötigt</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -172,21 +103,9 @@
     <t>Number</t>
   </si>
   <si>
-    <t>A number is required</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>EmailRequired</t>
-  </si>
-  <si>
-    <t>Eine Email wird benötigt</t>
-  </si>
-  <si>
-    <t>An email address is required</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -196,66 +115,30 @@
     <t>MobileNumber</t>
   </si>
   <si>
-    <t>MobileNumberRequired</t>
-  </si>
-  <si>
     <t>Slogan</t>
   </si>
   <si>
-    <t>SloganRequired</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
-    <t>PhotoRequired</t>
-  </si>
-  <si>
     <t>Mobile number</t>
   </si>
   <si>
-    <t>A mobile number is required</t>
-  </si>
-  <si>
-    <t>A slogan is required</t>
-  </si>
-  <si>
-    <t>A photo is required</t>
-  </si>
-  <si>
     <t>Mobiltelefon</t>
   </si>
   <si>
-    <t>Ein Mobiltelefon wird benötigt</t>
-  </si>
-  <si>
-    <t>Ein slogan wird benötigt</t>
-  </si>
-  <si>
     <t>Foto</t>
   </si>
   <si>
-    <t>Ein Foto wird benötigt</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
-    <t>LanguageRequired</t>
-  </si>
-  <si>
     <t>Sprache</t>
   </si>
   <si>
-    <t>A language is required</t>
-  </si>
-  <si>
-    <t>Eine Sprache wird benötigt</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -265,9 +148,6 @@
     <t>Herr</t>
   </si>
   <si>
-    <t>Mister</t>
-  </si>
-  <si>
     <t>Frau</t>
   </si>
   <si>
@@ -281,13 +161,40 @@
   </si>
   <si>
     <t>Mr</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>Personalies</t>
+  </si>
+  <si>
+    <t>Personalien</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Please add a value</t>
+  </si>
+  <si>
+    <t>Bitte einen Wert angeben</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Über</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +202,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,11 +237,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,293 +570,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
+      <c r="A13" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
+      <c r="A15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
+      <c r="A20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B20">
-    <sortState ref="A2:B29">
-      <sortCondition ref="A1:A20"/>
+  <autoFilter ref="A1:B24">
+    <sortState ref="A2:B25">
+      <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,281 +795,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
+      <c r="A15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
+      <c r="A20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B20">
-    <sortState ref="A2:B29">
-      <sortCondition ref="A1:A20"/>
+  <autoFilter ref="A1:B24">
+    <sortState ref="A2:B25">
+      <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>City</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>Über</t>
+  </si>
+  <si>
+    <t>Browse</t>
+  </si>
+  <si>
+    <t>Durchsuchen</t>
+  </si>
+  <si>
+    <t>RemovePicture</t>
+  </si>
+  <si>
+    <t>Remove this picture</t>
+  </si>
+  <si>
+    <t>Dieses Bild entfernen</t>
+  </si>
+  <si>
+    <t>RequiredSelection</t>
+  </si>
+  <si>
+    <t>Bitte einen Wert auswählen</t>
+  </si>
+  <si>
+    <t>Please select a value</t>
   </si>
 </sst>
 </file>
@@ -557,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,183 +619,207 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
+      <c r="A21" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B25">
+    <sortState ref="A2:B28">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -782,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,183 +868,207 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
+      <c r="A21" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B25">
+    <sortState ref="A2:B28">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>City</t>
   </si>
@@ -212,6 +212,150 @@
   </si>
   <si>
     <t>Please select a value</t>
+  </si>
+  <si>
+    <t>Choose a file to upload</t>
+  </si>
+  <si>
+    <t>ChooseFile</t>
+  </si>
+  <si>
+    <t>ChosenFile</t>
+  </si>
+  <si>
+    <t>DropFile</t>
+  </si>
+  <si>
+    <t>Drop a file to upload</t>
+  </si>
+  <si>
+    <t>Only</t>
+  </si>
+  <si>
+    <t>AllowedFiles</t>
+  </si>
+  <si>
+    <t>files are allowed to be uploaded</t>
+  </si>
+  <si>
+    <t>OnlyPdf</t>
+  </si>
+  <si>
+    <t>FileTooLarge</t>
+  </si>
+  <si>
+    <t>FilesTooLarge</t>
+  </si>
+  <si>
+    <t>FolderUpload</t>
+  </si>
+  <si>
+    <t>You are not allowed to upload folders</t>
+  </si>
+  <si>
+    <t>is too large - max filesize is</t>
+  </si>
+  <si>
+    <t>Datei zum upload auswählen</t>
+  </si>
+  <si>
+    <t>Legen Sie eine Datei zum Hochladen ab</t>
+  </si>
+  <si>
+    <t>Möchten Sie diese Datei wirklich entfernen</t>
+  </si>
+  <si>
+    <t>RemoveFileConfirmation</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove this file</t>
+  </si>
+  <si>
+    <t>Files you've choosed are too large</t>
+  </si>
+  <si>
+    <t>PleaseUpload</t>
+  </si>
+  <si>
+    <t>Please upload files up to</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>Dateien sind zum Hochladen erlaubt</t>
+  </si>
+  <si>
+    <t>ist zu gross - die maximale Grösse beträgt</t>
+  </si>
+  <si>
+    <t>Die Dateien sind zu gross</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie die Dateigrösse von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordner dürfen nicht hochgeladen werden </t>
+  </si>
+  <si>
+    <t>Only PDF files are allowed to be uploaded</t>
+  </si>
+  <si>
+    <t>Nur PDF-Dateien können hochgeladen werden</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Warnung</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Bestätigung</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Lebenslauf</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>PleaseConfirm</t>
+  </si>
+  <si>
+    <t>Bitte bestätigen</t>
+  </si>
+  <si>
+    <t>Please confirm</t>
+  </si>
+  <si>
+    <t>file has been chosen</t>
+  </si>
+  <si>
+    <t>Datei wurde ausgewählt</t>
   </si>
 </sst>
 </file>
@@ -581,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,215 +755,367 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
+      <c r="A18" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B28">
+    <sortState ref="A2:B47">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -830,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B28"/>
+      <selection activeCell="A2" sqref="A2:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,218 +1156,371 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
+      <c r="A18" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B28">
+    <sortState ref="A2:B47">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
   <si>
     <t>City</t>
   </si>
@@ -356,13 +356,82 @@
   </si>
   <si>
     <t>Datei wurde ausgewählt</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Ausbildung</t>
+  </si>
+  <si>
+    <t>SchoolName</t>
+  </si>
+  <si>
+    <t>SchoolLink</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Resumee</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Educational institution</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Title of education</t>
+  </si>
+  <si>
+    <t>Subject of education</t>
+  </si>
+  <si>
+    <t>Ausbildungsstätte</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Titel der Ausbildung</t>
+  </si>
+  <si>
+    <t>Thema der Ausbildung</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Ende</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +441,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -405,12 +481,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,311 +888,391 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
+      <c r="A24" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>96</v>
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
+      <c r="A32" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
+      <c r="A36" t="s">
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
+      <c r="A41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B47">
+    <sortState ref="A2:B57">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1126,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,311 +1369,391 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
+      <c r="A24" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>96</v>
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
+      <c r="A32" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
+      <c r="A36" t="s">
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
+      <c r="A41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B47">
+    <sortState ref="A2:B57">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
   <si>
     <t>City</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>Ende</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Hinzufügen</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Nationalität</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B57"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,6 +1280,22 @@
       </c>
       <c r="B57" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,6 +1779,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B24">
     <sortState ref="A2:B57">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6411D96B-A7D2-4B2E-8321-1D4C665B2B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30225" windowHeight="19620"/>
+    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="138">
   <si>
     <t>City</t>
   </si>
@@ -437,12 +438,18 @@
   </si>
   <si>
     <t>Nationalität</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Entfernen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +509,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,20 +820,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -834,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -842,7 +849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -850,7 +857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -858,7 +865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -866,7 +873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -874,7 +881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -882,7 +889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -890,7 +897,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -914,7 +921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -922,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,7 +937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -938,7 +945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -946,7 +953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -954,7 +961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -962,7 +969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>118</v>
       </c>
@@ -970,7 +977,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -978,7 +985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -986,7 +993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1058,7 +1065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1090,7 +1097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1106,7 +1113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -1130,7 +1137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -1266,7 +1273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -1298,9 +1305,17 @@
         <v>134</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B24">
-    <sortState ref="A2:B57">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1310,20 +1325,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1363,7 +1378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -1371,7 +1386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>118</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -1483,7 +1498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -1515,7 +1530,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1563,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +1618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -1683,7 +1698,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -1763,7 +1778,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -1795,9 +1810,17 @@
         <v>135</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B24">
-    <sortState ref="A2:B57">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6411D96B-A7D2-4B2E-8321-1D4C665B2B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
   <si>
     <t>City</t>
   </si>
@@ -444,12 +443,75 @@
   </si>
   <si>
     <t>Entfernen</t>
+  </si>
+  <si>
+    <t>PersonalData</t>
+  </si>
+  <si>
+    <t>Personal data</t>
+  </si>
+  <si>
+    <t>PersonalDetails</t>
+  </si>
+  <si>
+    <t>Personal details</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>CurriculumVitae</t>
+  </si>
+  <si>
+    <t>Curriculum Vitae</t>
+  </si>
+  <si>
+    <t>Persönliche Angaben</t>
+  </si>
+  <si>
+    <t>Erfahrung</t>
+  </si>
+  <si>
+    <t>Sprachen</t>
+  </si>
+  <si>
+    <t>Interessen</t>
+  </si>
+  <si>
+    <t>MyVitae</t>
+  </si>
+  <si>
+    <t>Mein Vitae</t>
+  </si>
+  <si>
+    <t>My Vitae</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>Errungenschaften</t>
+  </si>
+  <si>
+    <t>LoggedInAs</t>
+  </si>
+  <si>
+    <t>Logged in as</t>
+  </si>
+  <si>
+    <t>Eingeloggt als</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -820,20 +882,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -841,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -849,63 +911,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,409 +975,481 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>136</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
+  <autoFilter ref="A1:B24">
+    <sortState ref="A2:B66">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1325,20 +1459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1354,473 +1488,545 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>137</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
+  <autoFilter ref="A1:B24">
+    <sortState ref="A2:B66">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
   <si>
     <t>City</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t>Eingeloggt als</t>
+  </si>
+  <si>
+    <t>ProperValue</t>
+  </si>
+  <si>
+    <t>Please enter a proper value</t>
+  </si>
+  <si>
+    <t>Bitte einen gültigen Wert eingeben</t>
   </si>
 </sst>
 </file>
@@ -883,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,6 +1454,14 @@
       </c>
       <c r="B69" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1460,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,6 +2041,14 @@
         <v>158</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B24">
     <sortState ref="A2:B66">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265" activeTab="1"/>
+    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="193">
   <si>
     <t>City</t>
   </si>
@@ -515,6 +515,99 @@
   </si>
   <si>
     <t>Bitte einen gültigen Wert eingeben</t>
+  </si>
+  <si>
+    <t>ValueIsInvalidAccessor</t>
+  </si>
+  <si>
+    <t>ValueMustBeANumberAccessor</t>
+  </si>
+  <si>
+    <t>MissingBindRequiredValueAccessor</t>
+  </si>
+  <si>
+    <t>AttemptedValueIsInvalidAccessor</t>
+  </si>
+  <si>
+    <t>MissingKeyOrValueAccessor</t>
+  </si>
+  <si>
+    <t>UnknownValueIsInvalidAccessor</t>
+  </si>
+  <si>
+    <t>ValueMustNotBeNullAccessor</t>
+  </si>
+  <si>
+    <t>MissingRequestBodyRequiredValueAccessor</t>
+  </si>
+  <si>
+    <t>NonPropertyAttemptedValueIsInvalidAccessor</t>
+  </si>
+  <si>
+    <t>NonPropertyUnknownValueIsInvalidAccessor</t>
+  </si>
+  <si>
+    <t>NonPropertyValueMustBeANumberAccessor</t>
+  </si>
+  <si>
+    <t>A value is required</t>
+  </si>
+  <si>
+    <t>A non-empty request body is required</t>
+  </si>
+  <si>
+    <t>The supplied value is invalid</t>
+  </si>
+  <si>
+    <t>The field must be a number</t>
+  </si>
+  <si>
+    <t>Ein Wert wird benötigt</t>
+  </si>
+  <si>
+    <t>Ein nicht leerer request body wird benötigt</t>
+  </si>
+  <si>
+    <t>Der gelieferte Wert ist ungültig</t>
+  </si>
+  <si>
+    <t>Das Feld muss eine Nummer sein</t>
+  </si>
+  <si>
+    <t>The value '{0}' is invalid</t>
+  </si>
+  <si>
+    <t>The field {0} must be a number</t>
+  </si>
+  <si>
+    <t>A value for the '{0}' property was not provided</t>
+  </si>
+  <si>
+    <t>The value '{0}' is not valid for {y}</t>
+  </si>
+  <si>
+    <t>The supplied value is invalid for {0}</t>
+  </si>
+  <si>
+    <t>The value '{0}' is not valid</t>
+  </si>
+  <si>
+    <t>Der Wert '{0}' ist ungültig</t>
+  </si>
+  <si>
+    <t>Das Feld {0} muss eine Nummer sein</t>
+  </si>
+  <si>
+    <t>Ein Wert für das '{0}' Feld wurde nicht angegben</t>
+  </si>
+  <si>
+    <t>Der Wert '{0}' ist nicht gültig für {y}</t>
+  </si>
+  <si>
+    <t>Der gelieferte Wert ist ungültig für {0}</t>
+  </si>
+  <si>
+    <t>Der Wert '{0}' ist nicht gültig</t>
   </si>
 </sst>
 </file>
@@ -892,15 +985,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:B70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1462,6 +1555,94 @@
       </c>
       <c r="B70" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1477,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,6 +2230,94 @@
         <v>161</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B24">
     <sortState ref="A2:B66">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407A550-7F28-4AC5-8059-2B6DD9DA38EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265"/>
+    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
   <si>
     <t>City</t>
   </si>
@@ -608,12 +609,21 @@
   </si>
   <si>
     <t>Der Wert '{0}' ist nicht gültig</t>
+  </si>
+  <si>
+    <t>UntilNow</t>
+  </si>
+  <si>
+    <t>Until now</t>
+  </si>
+  <si>
+    <t>Bis jetzt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,7 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -984,20 +994,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>132</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1197,7 +1207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -1237,7 +1247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
@@ -1293,7 +1303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1309,7 +1319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -1325,7 +1335,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
@@ -1333,7 +1343,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1341,7 +1351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1349,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -1365,7 +1375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -1405,7 +1415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -1429,7 +1439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -1437,7 +1447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,7 +1455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -1453,7 +1463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -1565,7 +1575,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -1589,7 +1599,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -1629,7 +1639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -1637,7 +1647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -1645,9 +1655,17 @@
         <v>176</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B24">
-    <sortState ref="A2:B66">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1657,20 +1675,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:B81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1686,7 +1704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>132</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1710,7 +1728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +1736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1766,7 +1784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +1792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -1790,7 +1808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -1798,7 +1816,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -1806,7 +1824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -1814,7 +1832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -1838,7 +1856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -1854,7 +1872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1870,7 +1888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1878,7 +1896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -1886,7 +1904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -1894,7 +1912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -1910,7 +1928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1934,7 +1952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,7 +1960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,7 +1968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -1958,7 +1976,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
@@ -1966,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -1974,7 +1992,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1982,7 +2000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -1998,7 +2016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2014,7 +2032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2070,7 +2088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -2078,7 +2096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -2118,7 +2136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -2166,7 +2184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
@@ -2174,7 +2192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -2206,7 +2224,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -2214,7 +2232,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -2222,7 +2240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -2238,7 +2256,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -2262,7 +2280,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -2278,7 +2296,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -2294,7 +2312,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -2318,9 +2336,17 @@
         <v>180</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B24">
-    <sortState ref="A2:B66">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="223">
   <si>
     <t>City</t>
   </si>
@@ -632,6 +632,72 @@
   </si>
   <si>
     <t>Firmenname</t>
+  </si>
+  <si>
+    <t>Educations</t>
+  </si>
+  <si>
+    <t>Ausbildungen</t>
+  </si>
+  <si>
+    <t>JobExperiences</t>
+  </si>
+  <si>
+    <t>Job experiences</t>
+  </si>
+  <si>
+    <t>Job-Erfahrungen</t>
+  </si>
+  <si>
+    <t>Nationalities</t>
+  </si>
+  <si>
+    <t>Nationalitäten</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Kenntniss</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Verhandlungssicher</t>
+  </si>
+  <si>
+    <t>Grundkenntnisse</t>
+  </si>
+  <si>
+    <t>Fliessend</t>
+  </si>
+  <si>
+    <t>Muttersprache</t>
+  </si>
+  <si>
+    <t>KnowledgeBasic</t>
+  </si>
+  <si>
+    <t>KnowledgeBusinessFluent</t>
+  </si>
+  <si>
+    <t>Business fluent</t>
+  </si>
+  <si>
+    <t>Fluently</t>
+  </si>
+  <si>
+    <t>Native language</t>
+  </si>
+  <si>
+    <t>Basic knowledge</t>
+  </si>
+  <si>
+    <t>KnowledgeFluent</t>
+  </si>
+  <si>
+    <t>KnowledgeNative</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B84"/>
+      <selection activeCell="A92" sqref="A89:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,6 +1757,70 @@
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,6 +2520,70 @@
         <v>41</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B24">
     <sortState ref="A2:B84">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265" activeTab="1"/>
+    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
   <si>
     <t>City</t>
   </si>
@@ -187,9 +187,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>Über</t>
-  </si>
-  <si>
     <t>Browse</t>
   </si>
   <si>
@@ -698,6 +695,12 @@
   </si>
   <si>
     <t>KnowledgeNative</t>
+  </si>
+  <si>
+    <t>Weitere Angaben</t>
+  </si>
+  <si>
+    <t>Further details</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A92" sqref="A89:A92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,39 +1103,39 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,34 +1148,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,18 +1196,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
         <v>198</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,34 +1228,34 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,34 +1268,34 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,10 +1308,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,26 +1324,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,10 +1356,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,10 +1372,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,26 +1388,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,90 +1436,90 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,50 +1540,50 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
         <v>81</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
         <v>78</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,18 +1596,18 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,10 +1620,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,10 +1644,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,82 +1676,82 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" t="s">
         <v>192</v>
-      </c>
-      <c r="B77" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,66 +1764,66 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" t="s">
         <v>216</v>
-      </c>
-      <c r="B90" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1838,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,39 +1864,39 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,34 +1909,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,23 +1952,23 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,34 +1989,34 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2026,34 +2029,34 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,10 +2069,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,26 +2085,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
         <v>195</v>
-      </c>
-      <c r="B32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,10 +2117,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,10 +2133,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,26 +2149,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,79 +2197,79 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>47</v>
@@ -2274,10 +2277,10 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,50 +2301,50 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,18 +2357,18 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,10 +2381,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,10 +2405,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,82 +2437,82 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,66 +2525,66 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265"/>
+    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="231">
   <si>
     <t>City</t>
   </si>
@@ -701,6 +701,27 @@
   </si>
   <si>
     <t>Further details</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AwardedFrom</t>
+  </si>
+  <si>
+    <t>Awarded from</t>
+  </si>
+  <si>
+    <t>AwardedOn</t>
+  </si>
+  <si>
+    <t>Awarded on</t>
+  </si>
+  <si>
+    <t>Verliehen von</t>
+  </si>
+  <si>
+    <t>Verliehen am</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,6 +1845,38 @@
       </c>
       <c r="B92" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1839,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,6 +2640,38 @@
         <v>213</v>
       </c>
     </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B24">
     <sortState ref="A2:B84">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -721,7 +721,7 @@
     <t>Verliehen von</t>
   </si>
   <si>
-    <t>Verliehen am</t>
+    <t>Verliehen im</t>
   </si>
 </sst>
 </file>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="238">
   <si>
     <t>City</t>
   </si>
@@ -722,6 +722,27 @@
   </si>
   <si>
     <t>Verliehen im</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Skillset</t>
+  </si>
+  <si>
+    <t>Kernkompetenz</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A96"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,735 +1174,767 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" t="s">
-        <v>198</v>
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>140</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
+        <v>108</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
+        <v>200</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>236</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>142</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>194</v>
+      <c r="A32" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>141</v>
+      <c r="A34" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>181</v>
+        <v>202</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>167</v>
+      <c r="A40" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
+      <c r="A41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>220</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>149</v>
+      <c r="A44" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" t="s">
-        <v>184</v>
+      <c r="A47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" t="s">
-        <v>173</v>
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>65</v>
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
+      <c r="A55" t="s">
+        <v>149</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>29</v>
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>103</v>
+      <c r="A57" t="s">
+        <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>80</v>
+      <c r="A58" t="s">
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>134</v>
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>77</v>
+      <c r="A61" t="s">
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>55</v>
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>117</v>
+        <v>138</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" t="s">
-        <v>183</v>
+      <c r="A76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" t="s">
-        <v>192</v>
+      <c r="A77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" t="s">
-        <v>179</v>
+      <c r="A79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" t="s">
-        <v>180</v>
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" t="s">
-        <v>179</v>
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>234</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>200</v>
+      <c r="A85" t="s">
+        <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>202</v>
+      <c r="A86" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>205</v>
+      <c r="A87" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" t="s">
-        <v>219</v>
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B90" t="s">
-        <v>216</v>
+        <v>112</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" t="s">
-        <v>217</v>
+        <v>111</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>221</v>
+      <c r="A92" t="s">
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>20</v>
+      <c r="A93" t="s">
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" t="s">
-        <v>224</v>
+        <v>122</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>225</v>
+      <c r="A95" t="s">
+        <v>160</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>227</v>
+      <c r="A96" t="s">
+        <v>161</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B84">
+    <sortState ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1892,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,735 +1999,767 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>109</v>
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>140</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
+        <v>108</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
+        <v>200</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>128</v>
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>142</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>194</v>
+      <c r="A32" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>141</v>
+      <c r="A34" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>167</v>
+      <c r="A40" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
+      <c r="A41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>220</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>149</v>
+      <c r="A44" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" t="s">
-        <v>190</v>
+      <c r="A47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>82</v>
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
+      <c r="A55" t="s">
+        <v>149</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>32</v>
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>103</v>
+      <c r="A57" t="s">
+        <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" t="s">
-        <v>86</v>
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>135</v>
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>77</v>
+      <c r="A61" t="s">
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>56</v>
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" t="s">
-        <v>189</v>
+      <c r="A76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" t="s">
-        <v>193</v>
+      <c r="A77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
+      <c r="A79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" t="s">
-        <v>186</v>
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" t="s">
-        <v>185</v>
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>97</v>
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>200</v>
+      <c r="A85" t="s">
+        <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" t="s">
-        <v>204</v>
+      <c r="A86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>205</v>
+      <c r="A87" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" t="s">
-        <v>211</v>
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B90" t="s">
-        <v>210</v>
+        <v>112</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" t="s">
-        <v>212</v>
+        <v>111</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>221</v>
+      <c r="A92" t="s">
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>20</v>
+      <c r="A93" t="s">
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>225</v>
+      <c r="A95" t="s">
+        <v>160</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>227</v>
+      <c r="A96" t="s">
+        <v>161</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24">
-    <sortState ref="A2:B84">
+    <sortState ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A6F3E-D5A4-4813-8A0B-02E78AD8BB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="540" windowWidth="22500" windowHeight="14265" activeTab="1"/>
+    <workbookView xWindow="4270" yWindow="880" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="244">
   <si>
     <t>City</t>
   </si>
@@ -736,19 +737,37 @@
     <t>Skillset</t>
   </si>
   <si>
-    <t>Kernkompetenz</t>
-  </si>
-  <si>
     <t>Etc</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Kernkompetenzen</t>
+  </si>
+  <si>
+    <t>Social links</t>
+  </si>
+  <si>
+    <t>Soziale Verbindungen</t>
+  </si>
+  <si>
+    <t>SocialLinks</t>
+  </si>
+  <si>
+    <t>SocialPlatform</t>
+  </si>
+  <si>
+    <t>Social platform</t>
+  </si>
+  <si>
+    <t>Soziale Plattform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -808,7 +827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1119,20 +1138,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B100"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1148,7 +1167,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -1156,7 +1175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -1172,7 +1191,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -1180,7 +1199,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>227</v>
       </c>
@@ -1188,7 +1207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -1196,7 +1215,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1204,7 +1223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1212,7 +1231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1220,7 +1239,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>232</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1236,7 +1255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -1268,7 +1287,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -1276,7 +1295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1300,7 +1319,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1308,7 +1327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -1316,7 +1335,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1324,7 +1343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -1332,7 +1351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>200</v>
       </c>
@@ -1340,7 +1359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -1356,15 +1375,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
         <v>236</v>
       </c>
-      <c r="B29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -1372,7 +1391,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -1380,7 +1399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1388,7 +1407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1404,7 +1423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -1428,7 +1447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -1436,7 +1455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -1444,7 +1463,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
@@ -1452,7 +1471,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>215</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -1468,7 +1487,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>221</v>
       </c>
@@ -1476,7 +1495,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>154</v>
       </c>
@@ -1508,7 +1527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -1524,7 +1543,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -1532,7 +1551,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -1540,7 +1559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1548,7 +1567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +1583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -1572,7 +1591,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -1588,7 +1607,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
@@ -1604,7 +1623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -1612,7 +1631,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -1628,7 +1647,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -1636,7 +1655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -1652,7 +1671,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -1660,7 +1679,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -1668,7 +1687,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -1676,7 +1695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -1708,7 +1727,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -1716,7 +1735,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>134</v>
       </c>
@@ -1724,7 +1743,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -1732,7 +1751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>48</v>
       </c>
@@ -1748,7 +1767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>113</v>
       </c>
@@ -1764,7 +1783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -1772,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>110</v>
       </c>
@@ -1780,7 +1799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +1807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>231</v>
       </c>
@@ -1796,7 +1815,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>234</v>
       </c>
@@ -1804,7 +1823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>115</v>
       </c>
@@ -1820,7 +1839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -1828,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -1860,7 +1879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>122</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -1908,7 +1927,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -1916,7 +1935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -1924,7 +1943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -1932,9 +1951,25 @@
         <v>9</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B24">
-    <sortState ref="A2:B100">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1944,20 +1979,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1965,7 +2000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1973,7 +2008,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -1981,7 +2016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1989,7 +2024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -1997,7 +2032,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -2005,7 +2040,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>227</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -2021,7 +2056,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -2029,7 +2064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -2045,7 +2080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>232</v>
       </c>
@@ -2053,7 +2088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -2061,7 +2096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -2069,7 +2104,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2120,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -2093,7 +2128,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -2101,7 +2136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -2133,7 +2168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -2141,7 +2176,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -2149,7 +2184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2157,7 +2192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>200</v>
       </c>
@@ -2165,7 +2200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -2181,15 +2216,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
         <v>236</v>
       </c>
-      <c r="B29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -2197,7 +2232,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2205,7 +2240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -2213,7 +2248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +2256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2229,7 +2264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2237,7 +2272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
@@ -2245,7 +2280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2253,7 +2288,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -2261,7 +2296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -2269,7 +2304,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
@@ -2277,7 +2312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>215</v>
       </c>
@@ -2285,7 +2320,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>221</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2309,7 +2344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -2317,7 +2352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -2325,7 +2360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>154</v>
       </c>
@@ -2333,7 +2368,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -2349,7 +2384,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -2357,7 +2392,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -2365,7 +2400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2373,7 +2408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -2397,7 +2432,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,7 +2440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -2421,7 +2456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
@@ -2429,7 +2464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -2437,7 +2472,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -2453,7 +2488,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -2461,7 +2496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2469,7 +2504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -2485,7 +2520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -2493,7 +2528,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2509,7 +2544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
@@ -2517,7 +2552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2525,7 +2560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -2533,7 +2568,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -2541,7 +2576,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>134</v>
       </c>
@@ -2549,7 +2584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2557,7 +2592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>54</v>
       </c>
@@ -2565,7 +2600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>48</v>
       </c>
@@ -2573,7 +2608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
@@ -2581,7 +2616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>113</v>
       </c>
@@ -2589,7 +2624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>110</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>231</v>
       </c>
@@ -2621,15 +2656,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -2637,7 +2672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>115</v>
       </c>
@@ -2645,7 +2680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -2677,7 +2712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -2685,7 +2720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -2693,7 +2728,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>122</v>
       </c>
@@ -2709,7 +2744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -2725,7 +2760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -2733,7 +2768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -2741,7 +2776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -2749,7 +2784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -2757,9 +2792,25 @@
         <v>41</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B24">
-    <sortState ref="A2:B100">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A6F3E-D5A4-4813-8A0B-02E78AD8BB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4270" yWindow="880" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="885" windowWidth="22500" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
     <sheet name="de" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">de!$A$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">en!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">de!$A$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">en!$A$1:$B$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="245">
   <si>
     <t>City</t>
   </si>
@@ -158,9 +157,6 @@
     <t>PLZ</t>
   </si>
   <si>
-    <t>Ort</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -762,12 +758,18 @@
   </si>
   <si>
     <t>Soziale Plattform</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Funktion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -827,7 +829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1138,20 +1140,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.453125" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1159,111 +1161,111 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,215 +1273,215 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
         <v>197</v>
       </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
         <v>143</v>
       </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
         <v>235</v>
       </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
       <c r="B29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="B38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="B41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -1487,151 +1489,151 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>167</v>
       </c>
-      <c r="B51" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -1639,271 +1641,271 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B90" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -1911,65 +1913,65 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1979,20 +1981,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2000,327 +2002,327 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
         <v>232</v>
       </c>
-      <c r="B12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>142</v>
-      </c>
       <c r="B37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
         <v>194</v>
       </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="B39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -2328,151 +2330,151 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>167</v>
       </c>
-      <c r="B51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2480,271 +2482,271 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -2752,65 +2754,65 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="248">
   <si>
     <t>City</t>
   </si>
@@ -764,6 +764,15 @@
   </si>
   <si>
     <t>Funktion</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Startseite</t>
   </si>
 </sst>
 </file>
@@ -1141,15 +1150,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1967,6 +1976,22 @@
       </c>
       <c r="B102" s="1" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,6 +2835,22 @@
         <v>244</v>
       </c>
     </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23">
     <sortState ref="A2:B100">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="885" windowWidth="22500" windowHeight="14265"/>
+    <workbookView xWindow="4275" yWindow="885" windowWidth="22500" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:B104"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118CFB1-0DE7-4C70-ADCC-04354D9650F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="885" windowWidth="22500" windowHeight="14265" activeTab="1"/>
+    <workbookView xWindow="4270" yWindow="880" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="260">
   <si>
     <t>City</t>
   </si>
@@ -773,12 +774,48 @@
   </si>
   <si>
     <t>Startseite</t>
+  </si>
+  <si>
+    <t>AdText2</t>
+  </si>
+  <si>
+    <t>AdText1</t>
+  </si>
+  <si>
+    <t>Want to improve your curriculum vitae? No problem - with VITAE you present yourself in the best possible light. Create a free account now!</t>
+  </si>
+  <si>
+    <t>Give a boost to your career</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>Registrieren</t>
+  </si>
+  <si>
+    <t>Einloggen</t>
+  </si>
+  <si>
+    <t>Fördern Sie Ihre Karriere</t>
+  </si>
+  <si>
+    <t>Möchten Sie Ihren Lebenslauf verbessern? Kein Problem - mit VITAE präsentieren Sie sich im bestmöglichen Licht. Erstellen Sie jetzt ein kostenloses Konto!</t>
+  </si>
+  <si>
+    <t>Create an account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,7 +875,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1149,20 +1186,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="118.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1178,7 +1215,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -1186,7 +1223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1194,7 +1231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -1202,7 +1239,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -1210,7 +1247,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -1218,7 +1255,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
@@ -1226,7 +1263,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1234,7 +1271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1242,7 +1279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1250,7 +1287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -1258,7 +1295,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1274,7 +1311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -1290,7 +1327,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -1298,7 +1335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -1322,7 +1359,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -1330,7 +1367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -1338,7 +1375,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1346,7 +1383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -1354,7 +1391,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -1362,7 +1399,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1370,7 +1407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -1378,7 +1415,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
@@ -1386,7 +1423,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -1394,7 +1431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -1402,7 +1439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1410,7 +1447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1426,7 +1463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -1442,7 +1479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -1450,7 +1487,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -1458,7 +1495,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -1466,7 +1503,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>213</v>
       </c>
@@ -1474,7 +1511,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
@@ -1482,7 +1519,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>219</v>
       </c>
@@ -1490,7 +1527,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -1498,7 +1535,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -1514,7 +1551,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
@@ -1530,7 +1567,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -1546,7 +1583,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -1554,7 +1591,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -1562,7 +1599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1570,7 +1607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -1578,7 +1615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1586,7 +1623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -1594,7 +1631,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -1610,7 +1647,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -1618,7 +1655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -1626,7 +1663,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -1634,7 +1671,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -1642,7 +1679,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -1650,7 +1687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -1658,7 +1695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1666,7 +1703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1674,7 +1711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -1682,7 +1719,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -1690,7 +1727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -1698,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1706,7 +1743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -1714,7 +1751,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -1722,7 +1759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -1730,7 +1767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>206</v>
       </c>
@@ -1738,7 +1775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>133</v>
       </c>
@@ -1746,7 +1783,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -1754,7 +1791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +1799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -1770,7 +1807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -1778,7 +1815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>112</v>
       </c>
@@ -1786,7 +1823,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
@@ -1802,7 +1839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -1810,7 +1847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -1818,7 +1855,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -1826,7 +1863,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +1871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>114</v>
       </c>
@@ -1842,7 +1879,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
@@ -1882,7 +1919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -1890,7 +1927,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -1898,7 +1935,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>121</v>
       </c>
@@ -1906,7 +1943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -1914,7 +1951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -1922,7 +1959,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -1930,7 +1967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
@@ -1938,7 +1975,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -1946,7 +1983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -1962,7 +1999,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -1970,7 +2007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>243</v>
       </c>
@@ -1978,7 +2015,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -1986,7 +2023,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>246</v>
       </c>
@@ -1994,9 +2031,41 @@
         <v>246</v>
       </c>
     </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B100">
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -2006,20 +2075,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2027,7 +2096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +2104,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -2043,7 +2112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -2051,7 +2120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -2059,7 +2128,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -2067,7 +2136,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -2075,7 +2144,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
@@ -2083,7 +2152,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,7 +2160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2099,7 +2168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -2107,7 +2176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -2115,7 +2184,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2123,7 +2192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2131,7 +2200,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2208,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -2147,7 +2216,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -2155,7 +2224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2163,7 +2232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2171,7 +2240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -2179,7 +2248,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -2187,7 +2256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -2195,7 +2264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2203,7 +2272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -2211,7 +2280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -2219,7 +2288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2235,7 +2304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
@@ -2243,7 +2312,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -2251,7 +2320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2259,7 +2328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -2267,7 +2336,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2275,7 +2344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2283,7 +2352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,7 +2360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -2299,7 +2368,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2307,7 +2376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -2315,7 +2384,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -2323,7 +2392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>213</v>
       </c>
@@ -2331,7 +2400,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
@@ -2339,7 +2408,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>219</v>
       </c>
@@ -2347,7 +2416,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -2355,7 +2424,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -2363,7 +2432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -2371,7 +2440,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2379,7 +2448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
@@ -2387,7 +2456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -2403,7 +2472,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -2411,7 +2480,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -2419,7 +2488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2427,7 +2496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -2435,7 +2504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -2451,7 +2520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -2467,7 +2536,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -2475,7 +2544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -2483,7 +2552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -2491,7 +2560,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -2499,7 +2568,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2507,7 +2576,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -2515,7 +2584,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2523,7 +2592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -2531,7 +2600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -2539,7 +2608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -2547,7 +2616,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -2555,7 +2624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -2563,7 +2632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -2571,7 +2640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -2579,7 +2648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -2587,7 +2656,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>206</v>
       </c>
@@ -2595,7 +2664,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>133</v>
       </c>
@@ -2603,7 +2672,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2611,7 +2680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -2619,7 +2688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -2627,7 +2696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -2635,7 +2704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>112</v>
       </c>
@@ -2643,7 +2712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
@@ -2659,7 +2728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -2667,7 +2736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -2675,7 +2744,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -2683,7 +2752,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -2691,7 +2760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>114</v>
       </c>
@@ -2699,7 +2768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2707,7 +2776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -2723,7 +2792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -2731,7 +2800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
@@ -2739,7 +2808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -2747,7 +2816,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -2755,7 +2824,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>121</v>
       </c>
@@ -2763,7 +2832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -2771,7 +2840,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -2779,7 +2848,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -2787,7 +2856,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
@@ -2795,7 +2864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -2803,7 +2872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -2819,7 +2888,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -2827,7 +2896,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>243</v>
       </c>
@@ -2835,7 +2904,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -2843,7 +2912,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>246</v>
       </c>
@@ -2851,9 +2920,44 @@
         <v>247</v>
       </c>
     </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B100">
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118CFB1-0DE7-4C70-ADCC-04354D9650F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E108BCC-9DC2-4AC6-B32F-4B558B40C9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4270" yWindow="880" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="280">
   <si>
     <t>City</t>
   </si>
@@ -810,6 +810,66 @@
   </si>
   <si>
     <t>Create an account</t>
+  </si>
+  <si>
+    <t>CreateAccount</t>
+  </si>
+  <si>
+    <t>Create a new account.</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Passwort</t>
+  </si>
+  <si>
+    <t>Ein neues Konto eröffnen.</t>
+  </si>
+  <si>
+    <t>The {0} must be at least {2} and at max {1} characters long.</t>
+  </si>
+  <si>
+    <t>PasswordErrorLength</t>
+  </si>
+  <si>
+    <t>Das {0} muss mindestens {2} und höchstens {1} Zeichen lang sein.</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Passwort bestätigen</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>CompareFailed</t>
+  </si>
+  <si>
+    <t>The password and confirmation password do not match.</t>
+  </si>
+  <si>
+    <t>Die Passwörter stimmen nicht überein</t>
+  </si>
+  <si>
+    <t>LoginTitle</t>
+  </si>
+  <si>
+    <t>Use a local account to log in.</t>
+  </si>
+  <si>
+    <t>Melden Sie sich mit einem Konto an.</t>
+  </si>
+  <si>
+    <t>Remember me?</t>
+  </si>
+  <si>
+    <t>Eingeloggt bleiben</t>
+  </si>
+  <si>
+    <t>RememberMe</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,6 +2121,62 @@
       </c>
       <c r="B108" s="1" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>268</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2076,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2953,7 +3069,60 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>268</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E108BCC-9DC2-4AC6-B32F-4B558B40C9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4270" yWindow="880" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="885" windowWidth="22500" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="300">
   <si>
     <t>City</t>
   </si>
@@ -870,12 +869,72 @@
   </si>
   <si>
     <t>RememberMe</t>
+  </si>
+  <si>
+    <t>PasswordForgot</t>
+  </si>
+  <si>
+    <t>RegisterANewUser</t>
+  </si>
+  <si>
+    <t>Einen neuen Benutzer registrieren</t>
+  </si>
+  <si>
+    <t>Forgot your password?</t>
+  </si>
+  <si>
+    <t>Register a new user</t>
+  </si>
+  <si>
+    <t>Passwort vergessen?</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Anfordern</t>
+  </si>
+  <si>
+    <t>CheckYourEmail</t>
+  </si>
+  <si>
+    <t>Please check your email to reset your password.</t>
+  </si>
+  <si>
+    <t>Bitte überprüfen Sie Ihre E-Mail, um Ihr Passwort zurückzusetzen.</t>
+  </si>
+  <si>
+    <t>EmailSent</t>
+  </si>
+  <si>
+    <t>The E-Mail has been sent</t>
+  </si>
+  <si>
+    <t>E-Mail wurde verschickt</t>
+  </si>
+  <si>
+    <t>RegisterConfirmation</t>
+  </si>
+  <si>
+    <t>Register confirmation</t>
+  </si>
+  <si>
+    <t>Registrierungsbestätigung</t>
+  </si>
+  <si>
+    <t>CheckYourEmailConfirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please check your email to confirm your account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitte überprüfen Sie Ihre E-Mail, um Ihr Konto zu bestätigen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,7 +994,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,20 +1305,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:B115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="118.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="118.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1334,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -1283,7 +1342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1291,7 +1350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -1299,7 +1358,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -1307,7 +1366,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -1315,7 +1374,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
@@ -1323,7 +1382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1331,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1339,7 +1398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1347,7 +1406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -1355,7 +1414,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1363,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1371,7 +1430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -1387,7 +1446,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -1395,7 +1454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -1419,7 +1478,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -1427,7 +1486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -1435,7 +1494,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1443,7 +1502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -1451,7 +1510,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -1459,7 +1518,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -1475,7 +1534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
@@ -1483,7 +1542,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -1491,7 +1550,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -1499,7 +1558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1507,7 +1566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1523,7 +1582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1531,7 +1590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -1539,7 +1598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -1547,7 +1606,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -1555,7 +1614,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -1563,7 +1622,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>213</v>
       </c>
@@ -1571,7 +1630,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
@@ -1579,7 +1638,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>219</v>
       </c>
@@ -1587,7 +1646,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -1595,7 +1654,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -1611,7 +1670,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
@@ -1627,7 +1686,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -1643,7 +1702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -1651,7 +1710,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -1659,7 +1718,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -1675,7 +1734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1683,7 +1742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -1691,7 +1750,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -1707,7 +1766,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -1715,7 +1774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -1723,7 +1782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -1731,7 +1790,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -1739,7 +1798,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -1747,7 +1806,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -1755,7 +1814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1763,7 +1822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1771,7 +1830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -1779,7 +1838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -1787,7 +1846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -1795,7 +1854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1803,7 +1862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -1811,7 +1870,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -1819,7 +1878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -1827,7 +1886,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>206</v>
       </c>
@@ -1835,7 +1894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>133</v>
       </c>
@@ -1843,7 +1902,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -1851,7 +1910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -1859,7 +1918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -1867,7 +1926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -1875,7 +1934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>112</v>
       </c>
@@ -1883,7 +1942,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
@@ -1899,7 +1958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +1966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -1915,7 +1974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -1923,7 +1982,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -1931,7 +1990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>114</v>
       </c>
@@ -1939,7 +1998,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -1947,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +2022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -1971,7 +2030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
@@ -1979,7 +2038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -1987,7 +2046,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -1995,7 +2054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>121</v>
       </c>
@@ -2003,7 +2062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -2011,7 +2070,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -2019,7 +2078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -2027,7 +2086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
@@ -2035,7 +2094,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -2043,7 +2102,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -2051,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -2059,7 +2118,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -2067,7 +2126,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>243</v>
       </c>
@@ -2075,7 +2134,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -2083,7 +2142,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>246</v>
       </c>
@@ -2091,7 +2150,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>249</v>
       </c>
@@ -2099,7 +2158,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -2107,7 +2166,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>252</v>
       </c>
@@ -2115,7 +2174,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>253</v>
       </c>
@@ -2123,7 +2182,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>260</v>
       </c>
@@ -2131,7 +2190,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>262</v>
       </c>
@@ -2139,7 +2198,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>266</v>
       </c>
@@ -2147,7 +2206,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>268</v>
       </c>
@@ -2155,7 +2214,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>271</v>
       </c>
@@ -2163,7 +2222,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
@@ -2171,7 +2230,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>279</v>
       </c>
@@ -2179,9 +2238,65 @@
         <v>277</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B119" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -2191,20 +2306,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:B115"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2212,7 +2327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2220,7 +2335,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -2228,7 +2343,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -2236,7 +2351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -2244,7 +2359,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -2252,7 +2367,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -2260,7 +2375,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
@@ -2268,7 +2383,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2284,7 +2399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -2292,7 +2407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -2300,7 +2415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2316,7 +2431,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -2332,7 +2447,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -2340,7 +2455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2356,7 +2471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -2364,7 +2479,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -2372,7 +2487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -2380,7 +2495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2388,7 +2503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -2396,7 +2511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -2404,7 +2519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2420,7 +2535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
@@ -2428,7 +2543,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -2436,7 +2551,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2444,7 +2559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -2452,7 +2567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2460,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2468,7 +2583,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +2591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -2484,7 +2599,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2492,7 +2607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -2500,7 +2615,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -2508,7 +2623,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>213</v>
       </c>
@@ -2516,7 +2631,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
@@ -2524,7 +2639,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>219</v>
       </c>
@@ -2532,7 +2647,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -2540,7 +2655,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -2548,7 +2663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -2556,7 +2671,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2564,7 +2679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
@@ -2572,7 +2687,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -2580,7 +2695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -2588,7 +2703,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -2596,7 +2711,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -2604,7 +2719,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2612,7 +2727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -2620,7 +2735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -2628,7 +2743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -2636,7 +2751,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -2644,7 +2759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -2652,7 +2767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -2660,7 +2775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -2668,7 +2783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -2676,7 +2791,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -2684,7 +2799,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2692,7 +2807,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -2700,7 +2815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2708,7 +2823,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -2716,7 +2831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -2724,7 +2839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -2732,7 +2847,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,7 +2855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -2748,7 +2863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -2756,7 +2871,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -2764,7 +2879,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -2772,7 +2887,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>206</v>
       </c>
@@ -2780,7 +2895,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>133</v>
       </c>
@@ -2788,7 +2903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2796,7 +2911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -2804,7 +2919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -2812,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -2820,7 +2935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>112</v>
       </c>
@@ -2828,7 +2943,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
@@ -2844,7 +2959,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -2852,7 +2967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -2860,7 +2975,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -2868,7 +2983,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -2876,7 +2991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>114</v>
       </c>
@@ -2884,7 +2999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +3007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +3015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -2908,7 +3023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -2916,7 +3031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
@@ -2924,7 +3039,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -2932,7 +3047,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -2940,7 +3055,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>121</v>
       </c>
@@ -2948,7 +3063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -2956,7 +3071,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -2964,7 +3079,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -2972,7 +3087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
@@ -2980,7 +3095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -2988,7 +3103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -2996,7 +3111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -3004,7 +3119,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -3012,7 +3127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>243</v>
       </c>
@@ -3020,7 +3135,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -3028,7 +3143,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>246</v>
       </c>
@@ -3036,7 +3151,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>249</v>
       </c>
@@ -3044,7 +3159,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -3052,7 +3167,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>252</v>
       </c>
@@ -3060,7 +3175,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>253</v>
       </c>
@@ -3068,7 +3183,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>260</v>
       </c>
@@ -3076,7 +3191,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>262</v>
       </c>
@@ -3084,7 +3199,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>266</v>
       </c>
@@ -3092,7 +3207,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>268</v>
       </c>
@@ -3100,7 +3215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>271</v>
       </c>
@@ -3108,7 +3223,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
@@ -3116,7 +3231,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>279</v>
       </c>
@@ -3124,9 +3239,65 @@
         <v>278</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B100">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="378">
   <si>
     <t>City</t>
   </si>
@@ -925,10 +925,244 @@
     <t>CheckYourEmailConfirm</t>
   </si>
   <si>
-    <t xml:space="preserve"> Please check your email to confirm your account.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bitte überprüfen Sie Ihre E-Mail, um Ihr Konto zu bestätigen.</t>
+  </si>
+  <si>
+    <t>DefaultError</t>
+  </si>
+  <si>
+    <t>ConcurrencyFailure</t>
+  </si>
+  <si>
+    <t>PasswordMismatch</t>
+  </si>
+  <si>
+    <t>InvalidToken</t>
+  </si>
+  <si>
+    <t>LoginAlreadyAssociated</t>
+  </si>
+  <si>
+    <t>InvalidUserName</t>
+  </si>
+  <si>
+    <t>InvalidEmail</t>
+  </si>
+  <si>
+    <t>DuplicateUserName</t>
+  </si>
+  <si>
+    <t>DuplicateEmail</t>
+  </si>
+  <si>
+    <t>InvalidRoleName</t>
+  </si>
+  <si>
+    <t>DuplicateRoleName</t>
+  </si>
+  <si>
+    <t>UserAlreadyHasPassword</t>
+  </si>
+  <si>
+    <t>UserLockoutNotEnabled</t>
+  </si>
+  <si>
+    <t>UserAlreadyInRole</t>
+  </si>
+  <si>
+    <t>UserNotInRole</t>
+  </si>
+  <si>
+    <t>PasswordTooShort</t>
+  </si>
+  <si>
+    <t>PasswordRequiresNonAlphanumeric</t>
+  </si>
+  <si>
+    <t>PasswordRequiresDigit</t>
+  </si>
+  <si>
+    <t>PasswordRequiresLower</t>
+  </si>
+  <si>
+    <t>PasswordRequiresUpper</t>
+  </si>
+  <si>
+    <t>Please check your email to confirm your account.</t>
+  </si>
+  <si>
+    <t>An unknown failure has occurred.</t>
+  </si>
+  <si>
+    <t>Optimistic concurrency failure, object has been modified.</t>
+  </si>
+  <si>
+    <t>Incorrect password.</t>
+  </si>
+  <si>
+    <t>Invalid token.</t>
+  </si>
+  <si>
+    <t>A user with this login already exists.</t>
+  </si>
+  <si>
+    <t>User name '{0}' is invalid, can only contain letters or digits.</t>
+  </si>
+  <si>
+    <t>Email '{0}' is invalid.</t>
+  </si>
+  <si>
+    <t>User Name '{0}' is already taken.</t>
+  </si>
+  <si>
+    <t>Email '{0}' is already taken.</t>
+  </si>
+  <si>
+    <t>Role name '{0}' is invalid.</t>
+  </si>
+  <si>
+    <t>Role name '{0}' is already taken.</t>
+  </si>
+  <si>
+    <t>User already has a password set.</t>
+  </si>
+  <si>
+    <t>Lockout is not enabled for this user.</t>
+  </si>
+  <si>
+    <t>User already in role '{0}'.</t>
+  </si>
+  <si>
+    <t>User is not in role '{0}'.</t>
+  </si>
+  <si>
+    <t>Passwords must be at least {0} characters.</t>
+  </si>
+  <si>
+    <t>Passwords must have at least one non alphanumeric character.</t>
+  </si>
+  <si>
+    <t>Passwords must have at least one digit ('0'-'9').</t>
+  </si>
+  <si>
+    <t>Passwords must have at least one lowercase ('a'-'z').</t>
+  </si>
+  <si>
+    <t>Passwords must have at least one uppercase ('A'-'Z').</t>
+  </si>
+  <si>
+    <t>Ein unbekannter Fehler ist aufgetreten.</t>
+  </si>
+  <si>
+    <t>Objekt wurde in der Zwischenzeit geändert.</t>
+  </si>
+  <si>
+    <t>Falsches Kennwort.</t>
+  </si>
+  <si>
+    <t>Ungültiges Token.</t>
+  </si>
+  <si>
+    <t>Ein Benutzer mit diesem Login existiert bereits.</t>
+  </si>
+  <si>
+    <t>Benutzername '{0}' ist ungültig (kann nur Buchstaben oder Ziffern enthalten).</t>
+  </si>
+  <si>
+    <t>E-Mail '{0}' ist ungültig.</t>
+  </si>
+  <si>
+    <t>Der Benutzername '{0}' ist bereits vergeben.</t>
+  </si>
+  <si>
+    <t>E-Mail '{0}' ist bereits vergeben.</t>
+  </si>
+  <si>
+    <t>Der Rollenname '{0}' ist bereits vergeben.</t>
+  </si>
+  <si>
+    <t>Der Benutzer hat bereits ein Passwort gesetzt.</t>
+  </si>
+  <si>
+    <t>Der Rollenname '{0}' ist ungültig.</t>
+  </si>
+  <si>
+    <t>Die Sperre ist für diesen Benutzer nicht aktiviert.</t>
+  </si>
+  <si>
+    <t>Der Benutzer ist bereits in der Rolle '{0}'.</t>
+  </si>
+  <si>
+    <t>Der Benutzer ist nicht in der Rolle '{0}'.</t>
+  </si>
+  <si>
+    <t>Passwörter müssen mindestens {0} Zeichen enthalten.</t>
+  </si>
+  <si>
+    <t>Passwörter müssen mindestens ein nicht alphanumerisches Zeichen enthalten.</t>
+  </si>
+  <si>
+    <t>Passwörter müssen mindestens eine Ziffer ('0'-'9') haben.</t>
+  </si>
+  <si>
+    <t>Passwörter müssen mindestens ein Kleinbuchstabe ('a'-'z') haben.</t>
+  </si>
+  <si>
+    <t>Passwörter müssen mindestens ein Großbuchstabenzeichen ('A'-'Z') haben.</t>
+  </si>
+  <si>
+    <t>InvalidLoginAttempt</t>
+  </si>
+  <si>
+    <t>Invalid login attempt.</t>
+  </si>
+  <si>
+    <t>Ungültiger Anmeldeversuch.</t>
+  </si>
+  <si>
+    <t>User account locked out.</t>
+  </si>
+  <si>
+    <t>AccountLockedOut</t>
+  </si>
+  <si>
+    <t>User logged in.</t>
+  </si>
+  <si>
+    <t>UserLoggedIn</t>
+  </si>
+  <si>
+    <t>Benutzerkonto gesperrt.</t>
+  </si>
+  <si>
+    <t>Angemeldeter Benutzer.</t>
+  </si>
+  <si>
+    <t>ConfirmEMail</t>
+  </si>
+  <si>
+    <t>Confirm email</t>
+  </si>
+  <si>
+    <t>E-Mail bestätigen</t>
+  </si>
+  <si>
+    <t>Thank you for confirming your email.</t>
+  </si>
+  <si>
+    <t>ConfirmEMailThankYou</t>
+  </si>
+  <si>
+    <t>Vielen Dank für die Bestätigung Ihrer E-Mail.</t>
+  </si>
+  <si>
+    <t>Error confirming your email.</t>
+  </si>
+  <si>
+    <t>ErrorConfirmEMail</t>
+  </si>
+  <si>
+    <t>Fehler bei der Bestätigung Ihrer E-Mail.</t>
   </si>
 </sst>
 </file>
@@ -1306,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:B122"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2525,215 @@
         <v>297</v>
       </c>
       <c r="B122" t="s">
-        <v>298</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>299</v>
+      </c>
+      <c r="B123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>306</v>
+      </c>
+      <c r="B130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>307</v>
+      </c>
+      <c r="B131" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>309</v>
+      </c>
+      <c r="B133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>312</v>
+      </c>
+      <c r="B136" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>313</v>
+      </c>
+      <c r="B137" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>314</v>
+      </c>
+      <c r="B138" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>315</v>
+      </c>
+      <c r="B139" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>317</v>
+      </c>
+      <c r="B141" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>318</v>
+      </c>
+      <c r="B142" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>360</v>
+      </c>
+      <c r="B143" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>364</v>
+      </c>
+      <c r="B144" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>369</v>
+      </c>
+      <c r="B146" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>373</v>
+      </c>
+      <c r="B147" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>376</v>
+      </c>
+      <c r="B148" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2307,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:B122"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +3734,215 @@
         <v>297</v>
       </c>
       <c r="B122" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>299</v>
+      </c>
+      <c r="B123" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>306</v>
+      </c>
+      <c r="B130" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>307</v>
+      </c>
+      <c r="B131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>309</v>
+      </c>
+      <c r="B133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>312</v>
+      </c>
+      <c r="B136" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>313</v>
+      </c>
+      <c r="B137" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>314</v>
+      </c>
+      <c r="B138" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>315</v>
+      </c>
+      <c r="B139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>317</v>
+      </c>
+      <c r="B141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>318</v>
+      </c>
+      <c r="B142" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>360</v>
+      </c>
+      <c r="B143" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>364</v>
+      </c>
+      <c r="B144" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>369</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>373</v>
+      </c>
+      <c r="B147" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>376</v>
+      </c>
+      <c r="B148" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F757CC-EDC2-47A4-8282-03D3511C6F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="885" windowWidth="22500" windowHeight="14265"/>
+    <workbookView xWindow="7000" yWindow="2330" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="413">
   <si>
     <t>City</t>
   </si>
@@ -1163,12 +1164,117 @@
   </si>
   <si>
     <t>Fehler bei der Bestätigung Ihrer E-Mail.</t>
+  </si>
+  <si>
+    <t>ResetPassword</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>ResetYourPassword</t>
+  </si>
+  <si>
+    <t>Reset your password</t>
+  </si>
+  <si>
+    <t>Passwort zurücksetzen</t>
+  </si>
+  <si>
+    <t>Setzen Sie ihr Passwort zurück</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Zurücksetzen</t>
+  </si>
+  <si>
+    <t>ResetPasswordConfirmation</t>
+  </si>
+  <si>
+    <t>Reset password confirmation</t>
+  </si>
+  <si>
+    <t>Your password has been reset. Please</t>
+  </si>
+  <si>
+    <t>ResetPasswordText2</t>
+  </si>
+  <si>
+    <t>click here to log in.</t>
+  </si>
+  <si>
+    <t>Passwort erfolgreich zurückgesetzt</t>
+  </si>
+  <si>
+    <t>Ihr Passwort wurde zurückgesetzt. Bitte</t>
+  </si>
+  <si>
+    <t>klicken Sie hier um sich anzumelden.</t>
+  </si>
+  <si>
+    <t>ResetPasswordText1</t>
+  </si>
+  <si>
+    <t>SupplyCode</t>
+  </si>
+  <si>
+    <t>A code must be supplied for password reset.</t>
+  </si>
+  <si>
+    <t>Für das Zurücksetzen des Passworts muss ein Code angegeben werden.</t>
+  </si>
+  <si>
+    <t>User created a new account with password.</t>
+  </si>
+  <si>
+    <t>UserCreatedWithPassword</t>
+  </si>
+  <si>
+    <t>Ein neues Benutzerkonto wurde erstellt</t>
+  </si>
+  <si>
+    <t>WelcomeToVitae</t>
+  </si>
+  <si>
+    <t>Welcome to VITAE</t>
+  </si>
+  <si>
+    <t>PleaseClickHereToConfirm</t>
+  </si>
+  <si>
+    <t>Willkommen bei VITAE</t>
+  </si>
+  <si>
+    <t>ClickHere</t>
+  </si>
+  <si>
+    <t>Please confirm your email account by</t>
+  </si>
+  <si>
+    <t>clicking here</t>
+  </si>
+  <si>
+    <t>Bitte bestätigen Sie ihr Benutzerkonto in dem Sie</t>
+  </si>
+  <si>
+    <t>hier klicken</t>
+  </si>
+  <si>
+    <t>ConfirmEmail</t>
+  </si>
+  <si>
+    <t>Confirm your email</t>
+  </si>
+  <si>
+    <t>Bestätigen Sie Ihr E-Mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1228,7 +1334,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1539,20 +1645,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:B148"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="118.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1568,1178 +1674,1274 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>196</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B35" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B46" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>141</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B56" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>360</v>
+      </c>
+      <c r="B58" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B63" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B64" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B65" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B66" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B67" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>140</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B69" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>161</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B75" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>163</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B76" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>166</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B77" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>131</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>167</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B86" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>168</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B87" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>169</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B88" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B91" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B106" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B114" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>384</v>
+      </c>
+      <c r="B119" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+      <c r="B120" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>386</v>
+      </c>
+      <c r="B121" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>394</v>
+      </c>
+      <c r="B122" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>380</v>
+      </c>
+      <c r="B124" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B130" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B131" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>395</v>
+      </c>
+      <c r="B140" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>164</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B142" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>190</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B143" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>159</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B150" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>160</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B151" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>165</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B152" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>239</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B105" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B109" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>268</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B114" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B116" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B117" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B119" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B121" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B122" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>299</v>
-      </c>
-      <c r="B123" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>300</v>
-      </c>
-      <c r="B124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>301</v>
-      </c>
-      <c r="B125" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>303</v>
-      </c>
-      <c r="B127" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>304</v>
-      </c>
-      <c r="B128" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>305</v>
-      </c>
-      <c r="B129" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>306</v>
-      </c>
-      <c r="B130" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>307</v>
-      </c>
-      <c r="B131" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>308</v>
-      </c>
-      <c r="B132" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>309</v>
-      </c>
-      <c r="B133" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>310</v>
-      </c>
-      <c r="B134" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>311</v>
-      </c>
-      <c r="B135" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>312</v>
-      </c>
-      <c r="B136" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>313</v>
-      </c>
-      <c r="B137" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>314</v>
-      </c>
-      <c r="B138" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>315</v>
-      </c>
-      <c r="B139" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>316</v>
-      </c>
-      <c r="B140" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>317</v>
-      </c>
-      <c r="B141" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>318</v>
-      </c>
-      <c r="B142" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>360</v>
-      </c>
-      <c r="B143" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>364</v>
-      </c>
-      <c r="B144" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>366</v>
-      </c>
-      <c r="B145" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>369</v>
-      </c>
-      <c r="B146" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>373</v>
-      </c>
-      <c r="B147" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>376</v>
-      </c>
-      <c r="B148" t="s">
-        <v>375</v>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B156" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B160" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B100">
-      <sortCondition ref="A1:A24"/>
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B155">
+      <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2748,20 +2950,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:B148"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2777,1178 +2979,1274 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>196</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B46" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B47" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>141</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>360</v>
+      </c>
+      <c r="B58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>201</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B63" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B64" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B65" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B66" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B67" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>140</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>161</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>163</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B76" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>166</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B77" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>167</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B86" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>168</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B87" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>169</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B88" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B106" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B114" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>384</v>
+      </c>
+      <c r="B119" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+      <c r="B120" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>386</v>
+      </c>
+      <c r="B121" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>394</v>
+      </c>
+      <c r="B122" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>380</v>
+      </c>
+      <c r="B124" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B130" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>395</v>
+      </c>
+      <c r="B140" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>164</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B142" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>190</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B143" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>159</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B150" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>160</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B151" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>165</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B152" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>239</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B105" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B111" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>268</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B114" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B116" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B117" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B119" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B121" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B122" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>299</v>
-      </c>
-      <c r="B123" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>300</v>
-      </c>
-      <c r="B124" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>301</v>
-      </c>
-      <c r="B125" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>303</v>
-      </c>
-      <c r="B127" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>304</v>
-      </c>
-      <c r="B128" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>305</v>
-      </c>
-      <c r="B129" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>306</v>
-      </c>
-      <c r="B130" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>307</v>
-      </c>
-      <c r="B131" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>308</v>
-      </c>
-      <c r="B132" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>309</v>
-      </c>
-      <c r="B133" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>310</v>
-      </c>
-      <c r="B134" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>311</v>
-      </c>
-      <c r="B135" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>312</v>
-      </c>
-      <c r="B136" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>313</v>
-      </c>
-      <c r="B137" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>314</v>
-      </c>
-      <c r="B138" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>315</v>
-      </c>
-      <c r="B139" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>316</v>
-      </c>
-      <c r="B140" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>317</v>
-      </c>
-      <c r="B141" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>318</v>
-      </c>
-      <c r="B142" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>360</v>
-      </c>
-      <c r="B143" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>364</v>
-      </c>
-      <c r="B144" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>366</v>
-      </c>
-      <c r="B145" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>369</v>
-      </c>
-      <c r="B146" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>373</v>
-      </c>
-      <c r="B147" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>376</v>
-      </c>
-      <c r="B148" t="s">
-        <v>377</v>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B156" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B160" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B100">
-      <sortCondition ref="A1:A24"/>
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B155">
+      <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F757CC-EDC2-47A4-8282-03D3511C6F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670FD9D-6760-4A8F-A6D8-510AE0BACF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="2330" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5590" yWindow="1810" windowWidth="22500" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="440">
   <si>
     <t>City</t>
   </si>
@@ -1269,6 +1269,87 @@
   </si>
   <si>
     <t>Bestätigen Sie Ihr E-Mail</t>
+  </si>
+  <si>
+    <t>Unable to load user with email</t>
+  </si>
+  <si>
+    <t>UnableToLoadUser</t>
+  </si>
+  <si>
+    <t>Benutzer mit folgender E-Mail Adresse konnte nicht geladen werden:</t>
+  </si>
+  <si>
+    <t>UnableToLoadUserID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to load user with ID </t>
+  </si>
+  <si>
+    <t>Benutzer mit folgender ID konnte nicht geladen werden:</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Abmelden</t>
+  </si>
+  <si>
+    <t>Loggedout</t>
+  </si>
+  <si>
+    <t>Logged out</t>
+  </si>
+  <si>
+    <t>LoggedoutMessage</t>
+  </si>
+  <si>
+    <t>You have successfully logged out of the application.</t>
+  </si>
+  <si>
+    <t>Sie haben sich erfolgreich abgemeldet.</t>
+  </si>
+  <si>
+    <t>Abgemeldet</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>Passwort ändern</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Neues Passwort</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>Current password</t>
+  </si>
+  <si>
+    <t>Aktuelles Passwort</t>
+  </si>
+  <si>
+    <t>PasswordChanged</t>
+  </si>
+  <si>
+    <t>Your password has been changed.</t>
+  </si>
+  <si>
+    <t>Das Passwort wurde geändert.</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:B160"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2936,6 +3017,86 @@
       </c>
       <c r="B160" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B162" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B163" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B164" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B166" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B167" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B168" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B169" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B170" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2951,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4243,6 +4404,86 @@
         <v>412</v>
       </c>
     </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B162" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B163" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B164" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B166" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B167" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B168" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B169" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B155">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670FD9D-6760-4A8F-A6D8-510AE0BACF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692201AF-4292-41FA-A46F-7D03068E348D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5590" yWindow="1810" windowWidth="22500" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5590" yWindow="1810" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="445">
   <si>
     <t>City</t>
   </si>
@@ -1109,9 +1109,6 @@
     <t>Passwörter müssen mindestens ein Kleinbuchstabe ('a'-'z') haben.</t>
   </si>
   <si>
-    <t>Passwörter müssen mindestens ein Großbuchstabenzeichen ('A'-'Z') haben.</t>
-  </si>
-  <si>
     <t>InvalidLoginAttempt</t>
   </si>
   <si>
@@ -1350,6 +1347,24 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>Passwörter müssen mindestens ein Grossbuchstabenzeichen ('A'-'Z') haben.</t>
+  </si>
+  <si>
+    <t>TheLogout</t>
+  </si>
+  <si>
+    <t>Abmeldung</t>
+  </si>
+  <si>
+    <t>ResetPasswordBy</t>
+  </si>
+  <si>
+    <t>Please reset your password by</t>
+  </si>
+  <si>
+    <t>Bitte setzen Sie ihr Passwort zurück in dem Sie</t>
   </si>
 </sst>
 </file>
@@ -1727,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:B170"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1757,10 +1772,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1933,18 +1948,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
         <v>369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2093,10 +2108,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2197,10 +2212,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58" t="s">
         <v>360</v>
-      </c>
-      <c r="B58" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2685,50 +2700,50 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>377</v>
+      </c>
+      <c r="B120" t="s">
         <v>378</v>
-      </c>
-      <c r="B120" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" t="s">
         <v>386</v>
-      </c>
-      <c r="B121" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>388</v>
+      </c>
+      <c r="B123" t="s">
         <v>389</v>
-      </c>
-      <c r="B123" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" t="s">
         <v>380</v>
-      </c>
-      <c r="B124" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -2853,10 +2868,10 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>394</v>
+      </c>
+      <c r="B140" t="s">
         <v>395</v>
-      </c>
-      <c r="B140" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2917,10 +2932,10 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B148" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2981,122 +2996,138 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B156" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B160" t="s">
         <v>410</v>
-      </c>
-      <c r="B160" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B162" t="s">
         <v>416</v>
-      </c>
-      <c r="B162" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B163" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B164" t="s">
         <v>421</v>
-      </c>
-      <c r="B164" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B165" t="s">
         <v>423</v>
-      </c>
-      <c r="B165" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B166" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B167" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B168" t="s">
         <v>433</v>
-      </c>
-      <c r="B168" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B169" t="s">
         <v>436</v>
-      </c>
-      <c r="B169" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B170" t="s">
-        <v>439</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B171" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B172" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3112,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3142,10 +3173,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3318,18 +3349,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" t="s">
         <v>373</v>
-      </c>
-      <c r="B26" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3478,10 +3509,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" t="s">
         <v>376</v>
-      </c>
-      <c r="B45" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -3582,10 +3613,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -3913,7 +3944,7 @@
         <v>318</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -4070,50 +4101,50 @@
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>383</v>
+      </c>
+      <c r="B119" t="s">
         <v>384</v>
-      </c>
-      <c r="B119" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B124" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -4238,10 +4269,10 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B140" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -4302,10 +4333,10 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B148" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -4366,122 +4397,138 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" t="s">
         <v>399</v>
-      </c>
-      <c r="B156" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B161" t="s">
         <v>414</v>
-      </c>
-      <c r="B161" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B163" t="s">
         <v>419</v>
-      </c>
-      <c r="B163" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B164" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B166" t="s">
         <v>427</v>
-      </c>
-      <c r="B166" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B167" t="s">
         <v>430</v>
-      </c>
-      <c r="B167" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B168" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B170" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B171" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B172" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692201AF-4292-41FA-A46F-7D03068E348D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5590" yWindow="1810" windowWidth="22500" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="1815" windowWidth="22500" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="454">
   <si>
     <t>City</t>
   </si>
@@ -1365,12 +1364,39 @@
   </si>
   <si>
     <t>Bitte setzen Sie ihr Passwort zurück in dem Sie</t>
+  </si>
+  <si>
+    <t>ChangeEmail</t>
+  </si>
+  <si>
+    <t>Email ändern</t>
+  </si>
+  <si>
+    <t>Change email</t>
+  </si>
+  <si>
+    <t>SendVerificationEmail</t>
+  </si>
+  <si>
+    <t>Send verification email</t>
+  </si>
+  <si>
+    <t>Sende E-Mail-Verifikation</t>
+  </si>
+  <si>
+    <t>NewEmail</t>
+  </si>
+  <si>
+    <t>Neue E-Mail</t>
+  </si>
+  <si>
+    <t>New email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1430,7 +1456,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1741,20 +1767,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B172"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="118.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="118.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1762,7 +1788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1796,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>363</v>
       </c>
@@ -1778,7 +1804,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
@@ -1786,7 +1812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -1794,7 +1820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -1802,7 +1828,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1810,7 +1836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -1818,7 +1844,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
@@ -1826,7 +1852,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
@@ -1834,7 +1860,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
@@ -1842,7 +1868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1850,7 +1876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1858,7 +1884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -1866,7 +1892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
@@ -1874,7 +1900,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>288</v>
       </c>
@@ -1882,7 +1908,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>297</v>
       </c>
@@ -1890,7 +1916,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1898,7 +1924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1906,7 +1932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -1922,7 +1948,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>271</v>
       </c>
@@ -1930,7 +1956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -1938,7 +1964,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -1946,7 +1972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -1954,7 +1980,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -1962,7 +1988,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -1970,7 +1996,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +2004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1986,7 +2012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>260</v>
       </c>
@@ -1994,7 +2020,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -2002,7 +2028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -2010,7 +2036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>245</v>
       </c>
@@ -2018,7 +2044,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>299</v>
       </c>
@@ -2026,7 +2052,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
@@ -2034,7 +2060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -2042,7 +2068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>307</v>
       </c>
@@ -2050,7 +2076,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>309</v>
       </c>
@@ -2058,7 +2084,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>306</v>
       </c>
@@ -2066,7 +2092,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -2074,7 +2100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
@@ -2082,7 +2108,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,7 +2116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>291</v>
       </c>
@@ -2098,7 +2124,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -2106,7 +2132,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -2114,7 +2140,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>234</v>
       </c>
@@ -2122,7 +2148,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2130,7 +2156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -2138,7 +2164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -2146,7 +2172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -2154,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
@@ -2162,7 +2188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>243</v>
       </c>
@@ -2170,7 +2196,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
@@ -2178,7 +2204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -2186,7 +2212,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>246</v>
       </c>
@@ -2194,7 +2220,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -2202,7 +2228,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>305</v>
       </c>
@@ -2210,7 +2236,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>359</v>
       </c>
@@ -2218,7 +2244,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>308</v>
       </c>
@@ -2226,7 +2252,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>302</v>
       </c>
@@ -2234,7 +2260,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>304</v>
       </c>
@@ -2242,7 +2268,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -2250,7 +2276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -2258,7 +2284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -2266,7 +2292,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -2274,7 +2300,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>219</v>
       </c>
@@ -2282,7 +2308,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>220</v>
       </c>
@@ -2290,7 +2316,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +2324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -2306,7 +2332,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -2314,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -2322,7 +2348,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>303</v>
       </c>
@@ -2330,7 +2356,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>274</v>
       </c>
@@ -2338,7 +2364,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -2346,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -2362,7 +2388,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -2370,7 +2396,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -2378,7 +2404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -2394,7 +2420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -2402,7 +2428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -2410,7 +2436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -2418,7 +2444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -2426,7 +2452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -2434,7 +2460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -2442,7 +2468,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -2450,7 +2476,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -2458,7 +2484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2466,7 +2492,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
@@ -2474,7 +2500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
@@ -2482,7 +2508,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>262</v>
       </c>
@@ -2490,7 +2516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
@@ -2498,7 +2524,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>280</v>
       </c>
@@ -2506,7 +2532,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>301</v>
       </c>
@@ -2514,7 +2540,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>316</v>
       </c>
@@ -2522,7 +2548,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -2530,7 +2556,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>315</v>
       </c>
@@ -2538,7 +2564,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>318</v>
       </c>
@@ -2546,7 +2572,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>314</v>
       </c>
@@ -2554,7 +2580,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>135</v>
       </c>
@@ -2562,7 +2588,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>137</v>
       </c>
@@ -2570,7 +2596,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -2586,7 +2612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -2594,7 +2620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
@@ -2602,7 +2628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>156</v>
       </c>
@@ -2610,7 +2636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
@@ -2618,7 +2644,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>252</v>
       </c>
@@ -2626,7 +2652,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>281</v>
       </c>
@@ -2634,7 +2660,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>294</v>
       </c>
@@ -2642,7 +2668,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>279</v>
       </c>
@@ -2650,7 +2676,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>133</v>
       </c>
@@ -2658,7 +2684,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>76</v>
       </c>
@@ -2666,7 +2692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
@@ -2674,7 +2700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>286</v>
       </c>
@@ -2682,7 +2708,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
@@ -2690,7 +2716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -2698,7 +2724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>383</v>
       </c>
@@ -2706,7 +2732,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>377</v>
       </c>
@@ -2714,7 +2740,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>385</v>
       </c>
@@ -2722,7 +2748,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -2730,7 +2756,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>388</v>
       </c>
@@ -2738,7 +2764,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>379</v>
       </c>
@@ -2746,7 +2772,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>112</v>
       </c>
@@ -2754,7 +2780,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>109</v>
       </c>
@@ -2770,7 +2796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>253</v>
       </c>
@@ -2786,7 +2812,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>230</v>
       </c>
@@ -2794,7 +2820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>233</v>
       </c>
@@ -2802,7 +2828,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -2810,7 +2836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -2818,7 +2844,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>240</v>
       </c>
@@ -2826,7 +2852,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>114</v>
       </c>
@@ -2834,7 +2860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -2850,7 +2876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -2858,7 +2884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>111</v>
       </c>
@@ -2866,7 +2892,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>394</v>
       </c>
@@ -2874,7 +2900,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>110</v>
       </c>
@@ -2882,7 +2908,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -2890,7 +2916,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>190</v>
       </c>
@@ -2898,7 +2924,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>121</v>
       </c>
@@ -2906,7 +2932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>310</v>
       </c>
@@ -2914,7 +2940,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>312</v>
       </c>
@@ -2922,7 +2948,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>311</v>
       </c>
@@ -2930,7 +2956,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -2938,7 +2964,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>313</v>
       </c>
@@ -2946,7 +2972,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -2954,7 +2980,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -2962,7 +2988,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -2970,7 +2996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>89</v>
       </c>
@@ -2978,7 +3004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
@@ -2986,7 +3012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
@@ -2994,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>398</v>
       </c>
@@ -3002,7 +3028,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>400</v>
       </c>
@@ -3010,7 +3036,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>402</v>
       </c>
@@ -3018,7 +3044,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>404</v>
       </c>
@@ -3026,7 +3052,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>409</v>
       </c>
@@ -3034,7 +3060,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>413</v>
       </c>
@@ -3042,7 +3068,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>415</v>
       </c>
@@ -3050,7 +3076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>418</v>
       </c>
@@ -3058,7 +3084,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>420</v>
       </c>
@@ -3066,7 +3092,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>422</v>
       </c>
@@ -3074,7 +3100,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>426</v>
       </c>
@@ -3082,7 +3108,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>429</v>
       </c>
@@ -3090,7 +3116,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>432</v>
       </c>
@@ -3098,7 +3124,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>435</v>
       </c>
@@ -3106,7 +3132,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>438</v>
       </c>
@@ -3114,7 +3140,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>440</v>
       </c>
@@ -3122,7 +3148,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>442</v>
       </c>
@@ -3130,9 +3156,33 @@
         <v>443</v>
       </c>
     </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>445</v>
+      </c>
+      <c r="B173" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B174" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B175" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B155">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B155">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
@@ -3142,20 +3192,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B172"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B175" sqref="A175:B175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3171,7 +3221,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>363</v>
       </c>
@@ -3179,7 +3229,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
@@ -3187,7 +3237,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -3195,7 +3245,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -3203,7 +3253,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -3211,7 +3261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -3219,7 +3269,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
@@ -3227,7 +3277,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
@@ -3235,7 +3285,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
@@ -3243,7 +3293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -3251,7 +3301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -3259,7 +3309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3267,7 +3317,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
@@ -3275,7 +3325,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>288</v>
       </c>
@@ -3283,7 +3333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>297</v>
       </c>
@@ -3291,7 +3341,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -3299,7 +3349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -3307,7 +3357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3365,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -3323,7 +3373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>271</v>
       </c>
@@ -3331,7 +3381,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -3339,7 +3389,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -3347,7 +3397,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -3355,7 +3405,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -3363,7 +3413,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -3371,7 +3421,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -3379,7 +3429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -3387,7 +3437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>260</v>
       </c>
@@ -3395,7 +3445,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3403,7 +3453,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -3411,7 +3461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>245</v>
       </c>
@@ -3419,7 +3469,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>299</v>
       </c>
@@ -3427,7 +3477,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
@@ -3435,7 +3485,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -3443,7 +3493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>307</v>
       </c>
@@ -3451,7 +3501,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>309</v>
       </c>
@@ -3459,7 +3509,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>306</v>
       </c>
@@ -3467,7 +3517,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -3475,7 +3525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
@@ -3483,7 +3533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -3491,7 +3541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>291</v>
       </c>
@@ -3499,7 +3549,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -3507,7 +3557,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -3515,7 +3565,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>234</v>
       </c>
@@ -3523,7 +3573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -3531,7 +3581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -3539,7 +3589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -3547,7 +3597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -3555,7 +3605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
@@ -3563,7 +3613,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>243</v>
       </c>
@@ -3571,7 +3621,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
@@ -3579,7 +3629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -3587,7 +3637,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>246</v>
       </c>
@@ -3595,7 +3645,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -3603,7 +3653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>305</v>
       </c>
@@ -3611,7 +3661,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>359</v>
       </c>
@@ -3619,7 +3669,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>308</v>
       </c>
@@ -3627,7 +3677,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>302</v>
       </c>
@@ -3635,7 +3685,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>304</v>
       </c>
@@ -3643,7 +3693,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -3651,7 +3701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -3659,7 +3709,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -3667,7 +3717,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -3675,7 +3725,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>219</v>
       </c>
@@ -3683,7 +3733,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>220</v>
       </c>
@@ -3691,7 +3741,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
@@ -3699,7 +3749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -3707,7 +3757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -3715,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -3723,7 +3773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>303</v>
       </c>
@@ -3731,7 +3781,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>274</v>
       </c>
@@ -3739,7 +3789,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -3747,7 +3797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -3755,7 +3805,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3763,7 +3813,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3771,7 +3821,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -3779,7 +3829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>42</v>
       </c>
@@ -3787,7 +3837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -3795,7 +3845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -3803,7 +3853,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -3811,7 +3861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -3819,7 +3869,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -3827,7 +3877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -3835,7 +3885,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -3843,7 +3893,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -3851,7 +3901,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -3859,7 +3909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -3867,7 +3917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
@@ -3875,7 +3925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
@@ -3883,7 +3933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>262</v>
       </c>
@@ -3891,7 +3941,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
@@ -3899,7 +3949,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>280</v>
       </c>
@@ -3907,7 +3957,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>301</v>
       </c>
@@ -3915,7 +3965,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>316</v>
       </c>
@@ -3923,7 +3973,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -3931,7 +3981,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>315</v>
       </c>
@@ -3939,7 +3989,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>318</v>
       </c>
@@ -3947,7 +3997,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>314</v>
       </c>
@@ -3955,7 +4005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>135</v>
       </c>
@@ -3963,7 +4013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>137</v>
       </c>
@@ -3971,7 +4021,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>45</v>
       </c>
@@ -3979,7 +4029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -3987,7 +4037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -3995,7 +4045,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
@@ -4003,7 +4053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>156</v>
       </c>
@@ -4011,7 +4061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
@@ -4019,7 +4069,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>252</v>
       </c>
@@ -4027,7 +4077,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>281</v>
       </c>
@@ -4035,7 +4085,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>294</v>
       </c>
@@ -4043,7 +4093,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>279</v>
       </c>
@@ -4051,7 +4101,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>133</v>
       </c>
@@ -4059,7 +4109,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>76</v>
       </c>
@@ -4067,7 +4117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
@@ -4075,7 +4125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>286</v>
       </c>
@@ -4083,7 +4133,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
@@ -4091,7 +4141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -4099,7 +4149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>383</v>
       </c>
@@ -4107,7 +4157,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>377</v>
       </c>
@@ -4115,7 +4165,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>385</v>
       </c>
@@ -4123,7 +4173,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -4131,7 +4181,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>388</v>
       </c>
@@ -4139,7 +4189,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>379</v>
       </c>
@@ -4147,7 +4197,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>112</v>
       </c>
@@ -4155,7 +4205,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>109</v>
       </c>
@@ -4171,7 +4221,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
@@ -4179,7 +4229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>253</v>
       </c>
@@ -4187,7 +4237,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>230</v>
       </c>
@@ -4195,7 +4245,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>233</v>
       </c>
@@ -4203,7 +4253,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -4211,7 +4261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -4219,7 +4269,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>240</v>
       </c>
@@ -4227,7 +4277,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>114</v>
       </c>
@@ -4235,7 +4285,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -4251,7 +4301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -4259,7 +4309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>111</v>
       </c>
@@ -4267,7 +4317,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>394</v>
       </c>
@@ -4275,7 +4325,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>110</v>
       </c>
@@ -4283,7 +4333,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -4291,7 +4341,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>190</v>
       </c>
@@ -4299,7 +4349,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>121</v>
       </c>
@@ -4307,7 +4357,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>310</v>
       </c>
@@ -4315,7 +4365,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>312</v>
       </c>
@@ -4323,7 +4373,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>311</v>
       </c>
@@ -4331,7 +4381,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -4339,7 +4389,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>313</v>
       </c>
@@ -4347,7 +4397,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -4355,7 +4405,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -4363,7 +4413,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -4371,7 +4421,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>89</v>
       </c>
@@ -4379,7 +4429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
@@ -4387,7 +4437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
@@ -4395,7 +4445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>398</v>
       </c>
@@ -4403,7 +4453,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>400</v>
       </c>
@@ -4411,7 +4461,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>402</v>
       </c>
@@ -4419,7 +4469,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>404</v>
       </c>
@@ -4427,7 +4477,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>409</v>
       </c>
@@ -4435,7 +4485,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>413</v>
       </c>
@@ -4443,7 +4493,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>415</v>
       </c>
@@ -4451,7 +4501,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>418</v>
       </c>
@@ -4459,7 +4509,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>420</v>
       </c>
@@ -4467,7 +4517,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>422</v>
       </c>
@@ -4475,7 +4525,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>426</v>
       </c>
@@ -4483,7 +4533,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>429</v>
       </c>
@@ -4491,7 +4541,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>432</v>
       </c>
@@ -4499,7 +4549,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>435</v>
       </c>
@@ -4507,7 +4557,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>438</v>
       </c>
@@ -4515,7 +4565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>440</v>
       </c>
@@ -4523,7 +4573,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>442</v>
       </c>
@@ -4531,9 +4581,33 @@
         <v>444</v>
       </c>
     </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>445</v>
+      </c>
+      <c r="B173" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B174" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B175" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B155">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B155">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB99182-4287-46F3-9A47-37160D29C979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8142E-5CD3-43C3-934F-0BE0FD5A015A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2520" windowWidth="22500" windowHeight="14260" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2520" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="470">
   <si>
     <t>City</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>Ihre E-Mail wurde bereits bestätigt.</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Übersicht</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3261,6 +3267,14 @@
       </c>
       <c r="B180" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3276,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:B180"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4728,6 +4742,14 @@
         <v>467</v>
       </c>
     </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B178">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8142E-5CD3-43C3-934F-0BE0FD5A015A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AADFE-62C9-47C3-82D5-9C86C5AF5AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2520" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="4980" windowWidth="22500" windowHeight="14260" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -20,17 +20,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">de!$A$1:$B$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">en!$A$1:$B$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="490">
   <si>
     <t>City</t>
   </si>
@@ -1440,6 +1448,66 @@
   </si>
   <si>
     <t>Übersicht</t>
+  </si>
+  <si>
+    <t>PasswordRules</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie ein Passwort, welches aus Klein- und Grossbuchstaben, Zahlen und mindestens einem Sonderzeichen besteht. Es muss aus mindestens 6 Zeichen bestehen.</t>
+  </si>
+  <si>
+    <t>Please choose a password consisting of lower and upper case letters, numbers and at least one special character. It must consist of at least 6 characters.</t>
+  </si>
+  <si>
+    <t>LockedOut</t>
+  </si>
+  <si>
+    <t>Locked out</t>
+  </si>
+  <si>
+    <t>Lockout</t>
+  </si>
+  <si>
+    <t>LockoutMessage</t>
+  </si>
+  <si>
+    <t>This account has been locked out, please try again later.</t>
+  </si>
+  <si>
+    <t>Ausgesperrt</t>
+  </si>
+  <si>
+    <t>Aussperrung</t>
+  </si>
+  <si>
+    <t>Dieses Konto wurde gesperrt, bitte versuchen Sie es später noch einmal.</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>Go back</t>
+  </si>
+  <si>
+    <t>AccessDenied</t>
+  </si>
+  <si>
+    <t>Access denied</t>
+  </si>
+  <si>
+    <t>Please fill out the Personal details first.</t>
+  </si>
+  <si>
+    <t>Zugang verweigert</t>
+  </si>
+  <si>
+    <t>Bitte füllen Sie zuerst die persönlichen Angaben aus.</t>
+  </si>
+  <si>
+    <t>AccessDeniedMessage</t>
   </si>
 </sst>
 </file>
@@ -1496,13 +1564,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1817,23 +1896,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="118.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.08984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1841,7 +1920,7 @@
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1849,7 +1928,7 @@
       <c r="A3" t="s">
         <v>362</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>361</v>
       </c>
     </row>
@@ -1857,7 +1936,7 @@
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1865,15 +1944,15 @@
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -1881,7 +1960,7 @@
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1889,7 +1968,7 @@
       <c r="A8" t="s">
         <v>162</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1897,7 +1976,7 @@
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1905,7 +1984,7 @@
       <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1913,7 +1992,7 @@
       <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1921,7 +2000,7 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1929,7 +2008,7 @@
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1937,7 +2016,7 @@
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1945,7 +2024,7 @@
       <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -1953,7 +2032,7 @@
       <c r="A16" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>433</v>
       </c>
     </row>
@@ -1961,7 +2040,7 @@
       <c r="A17" t="s">
         <v>440</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>442</v>
       </c>
     </row>
@@ -1969,7 +2048,7 @@
       <c r="A18" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>423</v>
       </c>
     </row>
@@ -1977,7 +2056,7 @@
       <c r="A19" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>288</v>
       </c>
     </row>
@@ -1985,7 +2064,7 @@
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -1993,7 +2072,7 @@
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2001,7 +2080,7 @@
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2009,7 +2088,7 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2017,7 +2096,7 @@
       <c r="A24" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2025,7 +2104,7 @@
       <c r="A25" t="s">
         <v>196</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2033,7 +2112,7 @@
       <c r="A26" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2041,7 +2120,7 @@
       <c r="A27" t="s">
         <v>299</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2049,7 +2128,7 @@
       <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2057,7 +2136,7 @@
       <c r="A29" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>450</v>
       </c>
     </row>
@@ -2065,7 +2144,7 @@
       <c r="A30" t="s">
         <v>404</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>367</v>
       </c>
     </row>
@@ -2073,7 +2152,7 @@
       <c r="A31" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2081,7 +2160,7 @@
       <c r="A32" t="s">
         <v>451</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2089,7 +2168,7 @@
       <c r="A33" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2097,7 +2176,7 @@
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2105,7 +2184,7 @@
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2113,7 +2192,7 @@
       <c r="A36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2121,7 +2200,7 @@
       <c r="A37" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>428</v>
       </c>
     </row>
@@ -2129,7 +2208,7 @@
       <c r="A38" t="s">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2137,7 +2216,7 @@
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2145,7 +2224,7 @@
       <c r="A40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2153,7 +2232,7 @@
       <c r="A41" t="s">
         <v>298</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2161,7 +2240,7 @@
       <c r="A42" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2169,7 +2248,7 @@
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2177,7 +2256,7 @@
       <c r="A44" t="s">
         <v>306</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2185,7 +2264,7 @@
       <c r="A45" t="s">
         <v>308</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -2193,7 +2272,7 @@
       <c r="A46" t="s">
         <v>305</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2201,7 +2280,7 @@
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2209,7 +2288,7 @@
       <c r="A48" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2217,7 +2296,7 @@
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2225,7 +2304,7 @@
       <c r="A50" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2233,7 +2312,7 @@
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2241,7 +2320,7 @@
       <c r="A52" t="s">
         <v>452</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2249,7 +2328,7 @@
       <c r="A53" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>466</v>
       </c>
     </row>
@@ -2257,7 +2336,7 @@
       <c r="A54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2265,7 +2344,7 @@
       <c r="A55" t="s">
         <v>139</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2273,7 +2352,7 @@
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2281,7 +2360,7 @@
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2289,7 +2368,7 @@
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2297,7 +2376,7 @@
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2305,7 +2384,7 @@
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2313,7 +2392,7 @@
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2321,7 +2400,7 @@
       <c r="A62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2329,7 +2408,7 @@
       <c r="A63" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2337,7 +2416,7 @@
       <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2345,7 +2424,7 @@
       <c r="A65" t="s">
         <v>304</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2353,7 +2432,7 @@
       <c r="A66" t="s">
         <v>358</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2361,7 +2440,7 @@
       <c r="A67" t="s">
         <v>307</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -2369,7 +2448,7 @@
       <c r="A68" t="s">
         <v>301</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2377,7 +2456,7 @@
       <c r="A69" t="s">
         <v>303</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2385,7 +2464,7 @@
       <c r="A70" t="s">
         <v>201</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2393,7 +2472,7 @@
       <c r="A71" t="s">
         <v>193</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2401,7 +2480,7 @@
       <c r="A72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2409,7 +2488,7 @@
       <c r="A73" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2417,7 +2496,7 @@
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2425,7 +2504,7 @@
       <c r="A75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2433,7 +2512,7 @@
       <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2441,7 +2520,7 @@
       <c r="A77" t="s">
         <v>140</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2449,7 +2528,7 @@
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2457,7 +2536,7 @@
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2465,7 +2544,7 @@
       <c r="A80" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>416</v>
       </c>
     </row>
@@ -2473,7 +2552,7 @@
       <c r="A81" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -2481,7 +2560,7 @@
       <c r="A82" t="s">
         <v>302</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2489,7 +2568,7 @@
       <c r="A83" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2497,7 +2576,7 @@
       <c r="A84" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>413</v>
       </c>
     </row>
@@ -2505,7 +2584,7 @@
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2513,7 +2592,7 @@
       <c r="A86" t="s">
         <v>161</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2521,7 +2600,7 @@
       <c r="A87" t="s">
         <v>163</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2529,7 +2608,7 @@
       <c r="A88" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2537,7 +2616,7 @@
       <c r="A89" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2545,7 +2624,7 @@
       <c r="A90" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2553,7 +2632,7 @@
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2561,7 +2640,7 @@
       <c r="A92" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2569,7 +2648,7 @@
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2577,7 +2656,7 @@
       <c r="A94" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2585,7 +2664,7 @@
       <c r="A95" t="s">
         <v>131</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2593,7 +2672,7 @@
       <c r="A96" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>448</v>
       </c>
     </row>
@@ -2601,7 +2680,7 @@
       <c r="A97" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2609,7 +2688,7 @@
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2617,7 +2696,7 @@
       <c r="A99" t="s">
         <v>167</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2625,7 +2704,7 @@
       <c r="A100" t="s">
         <v>168</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2633,7 +2712,7 @@
       <c r="A101" t="s">
         <v>169</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2641,7 +2720,7 @@
       <c r="A102" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2649,7 +2728,7 @@
       <c r="A103" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2657,7 +2736,7 @@
       <c r="A104" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2665,7 +2744,7 @@
       <c r="A105" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2673,7 +2752,7 @@
       <c r="A106" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>431</v>
       </c>
     </row>
@@ -2681,7 +2760,7 @@
       <c r="A107" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="5" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2689,7 +2768,7 @@
       <c r="A108" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2697,7 +2776,7 @@
       <c r="A109" t="s">
         <v>300</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2705,7 +2784,7 @@
       <c r="A110" t="s">
         <v>315</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2713,7 +2792,7 @@
       <c r="A111" t="s">
         <v>316</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2721,7 +2800,7 @@
       <c r="A112" t="s">
         <v>314</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2729,7 +2808,7 @@
       <c r="A113" t="s">
         <v>317</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2737,7 +2816,7 @@
       <c r="A114" t="s">
         <v>313</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="5" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2745,7 +2824,7 @@
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2753,7 +2832,7 @@
       <c r="A116" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2761,7 +2840,7 @@
       <c r="A117" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2769,7 +2848,7 @@
       <c r="A118" t="s">
         <v>29</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2777,7 +2856,7 @@
       <c r="A119" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="5" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2785,7 +2864,7 @@
       <c r="A120" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="4" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2793,7 +2872,7 @@
       <c r="A121" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2801,7 +2880,7 @@
       <c r="A122" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2809,7 +2888,7 @@
       <c r="A123" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2817,7 +2896,7 @@
       <c r="A124" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2825,7 +2904,7 @@
       <c r="A125" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="4" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2833,7 +2912,7 @@
       <c r="A126" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2841,7 +2920,7 @@
       <c r="A127" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2849,7 +2928,7 @@
       <c r="A128" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2857,7 +2936,7 @@
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2865,7 +2944,7 @@
       <c r="A130" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2873,7 +2952,7 @@
       <c r="A131" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2881,7 +2960,7 @@
       <c r="A132" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="4" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2889,7 +2968,7 @@
       <c r="A133" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2897,7 +2976,7 @@
       <c r="A134" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2905,7 +2984,7 @@
       <c r="A135" t="s">
         <v>379</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="5" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2913,7 +2992,7 @@
       <c r="A136" t="s">
         <v>373</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="5" t="s">
         <v>374</v>
       </c>
     </row>
@@ -2921,7 +3000,7 @@
       <c r="A137" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="5" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2929,7 +3008,7 @@
       <c r="A138" t="s">
         <v>381</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="5" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2937,7 +3016,7 @@
       <c r="A139" t="s">
         <v>389</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="5" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2945,7 +3024,7 @@
       <c r="A140" t="s">
         <v>384</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="5" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2953,7 +3032,7 @@
       <c r="A141" t="s">
         <v>375</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="5" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2961,7 +3040,7 @@
       <c r="A142" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2969,7 +3048,7 @@
       <c r="A143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2977,7 +3056,7 @@
       <c r="A144" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2985,7 +3064,7 @@
       <c r="A145" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2993,7 +3072,7 @@
       <c r="A146" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="5" t="s">
         <v>444</v>
       </c>
     </row>
@@ -3001,7 +3080,7 @@
       <c r="A147" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="4" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3009,7 +3088,7 @@
       <c r="A148" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="5" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3017,7 +3096,7 @@
       <c r="A149" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3025,7 +3104,7 @@
       <c r="A150" t="s">
         <v>28</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3033,7 +3112,7 @@
       <c r="A151" t="s">
         <v>239</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3041,7 +3120,7 @@
       <c r="A152" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3049,7 +3128,7 @@
       <c r="A153" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3057,7 +3136,7 @@
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3065,7 +3144,7 @@
       <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3073,7 +3152,7 @@
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3081,7 +3160,7 @@
       <c r="A157" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3089,7 +3168,7 @@
       <c r="A158" t="s">
         <v>390</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="5" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3097,7 +3176,7 @@
       <c r="A159" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="5" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3105,7 +3184,7 @@
       <c r="A160" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3113,7 +3192,7 @@
       <c r="A161" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3121,7 +3200,7 @@
       <c r="A162" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3129,7 +3208,7 @@
       <c r="A163" t="s">
         <v>164</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3137,7 +3216,7 @@
       <c r="A164" t="s">
         <v>190</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="5" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3145,7 +3224,7 @@
       <c r="A165" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3153,7 +3232,7 @@
       <c r="A166" t="s">
         <v>309</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3161,7 +3240,7 @@
       <c r="A167" t="s">
         <v>311</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="5" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3169,7 +3248,7 @@
       <c r="A168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="5" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3177,7 +3256,7 @@
       <c r="A169" t="s">
         <v>310</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="5" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3185,7 +3264,7 @@
       <c r="A170" t="s">
         <v>364</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -3193,7 +3272,7 @@
       <c r="A171" t="s">
         <v>312</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3201,7 +3280,7 @@
       <c r="A172" t="s">
         <v>159</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3209,7 +3288,7 @@
       <c r="A173" t="s">
         <v>160</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3217,7 +3296,7 @@
       <c r="A174" t="s">
         <v>165</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3225,7 +3304,7 @@
       <c r="A175" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="5" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3233,7 +3312,7 @@
       <c r="A176" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3241,7 +3320,7 @@
       <c r="A177" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3249,7 +3328,7 @@
       <c r="A178" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3257,7 +3336,7 @@
       <c r="A179" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3265,7 +3344,7 @@
       <c r="A180" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="5" t="s">
         <v>462</v>
       </c>
     </row>
@@ -3273,8 +3352,64 @@
       <c r="A181" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="4" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3290,16 +3425,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -4748,6 +4883,62 @@
       </c>
       <c r="B181" s="1" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AADFE-62C9-47C3-82D5-9C86C5AF5AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834863D-53C1-485C-9DA2-1064FD780C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="4980" windowWidth="22500" windowHeight="14260" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -862,12 +862,6 @@
     <t>LoginTitle</t>
   </si>
   <si>
-    <t>Use a local account to log in.</t>
-  </si>
-  <si>
-    <t>Melden Sie sich mit einem Konto an.</t>
-  </si>
-  <si>
     <t>Remember me?</t>
   </si>
   <si>
@@ -1508,6 +1502,12 @@
   </si>
   <si>
     <t>AccessDeniedMessage</t>
+  </si>
+  <si>
+    <t>Melden Sie sich mit Ihrem Konto an.</t>
+  </si>
+  <si>
+    <t>Use your local account to log in.</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2030,42 +2030,42 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2094,10 +2094,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2118,10 +2118,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2134,34 +2134,34 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2230,10 +2230,10 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,26 +2254,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,10 +2302,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,18 +2318,18 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,42 +2422,42 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2542,26 +2542,26 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2569,15 +2569,15 @@
         <v>273</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2670,18 +2670,18 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2750,10 +2750,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -2766,58 +2766,58 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2854,18 +2854,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -2910,26 +2910,26 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2958,10 +2958,10 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2982,58 +2982,58 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -3070,10 +3070,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -3166,18 +3166,18 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3190,18 +3190,18 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -3230,50 +3230,50 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -3302,10 +3302,10 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -3318,10 +3318,10 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -3342,74 +3342,74 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3427,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3474,7 +3474,7 @@
         <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3559,7 +3559,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -3567,34 +3567,34 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" t="s">
         <v>287</v>
-      </c>
-      <c r="B19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3623,10 +3623,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3647,10 +3647,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3663,34 +3663,34 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" t="s">
         <v>404</v>
-      </c>
-      <c r="B31" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -3727,10 +3727,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" t="s">
         <v>427</v>
-      </c>
-      <c r="B37" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3759,10 +3759,10 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -3783,26 +3783,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,10 +3831,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
         <v>290</v>
-      </c>
-      <c r="B50" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3847,10 +3847,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -3943,42 +3943,42 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65" t="s">
         <v>358</v>
-      </c>
-      <c r="B65" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B66" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -4063,26 +4063,26 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" t="s">
         <v>417</v>
-      </c>
-      <c r="B80" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -4090,15 +4090,15 @@
         <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>275</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -4191,18 +4191,18 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -4271,10 +4271,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B105" t="s">
         <v>430</v>
-      </c>
-      <c r="B105" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -4287,58 +4287,58 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B107" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -4375,18 +4375,18 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B118" t="s">
         <v>455</v>
-      </c>
-      <c r="B118" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B119" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -4431,26 +4431,26 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" t="s">
         <v>293</v>
-      </c>
-      <c r="B126" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -4479,10 +4479,10 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -4503,58 +4503,58 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" t="s">
         <v>437</v>
-      </c>
-      <c r="B136" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B140" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -4591,10 +4591,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B145" t="s">
         <v>443</v>
-      </c>
-      <c r="B145" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -4687,18 +4687,18 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>388</v>
+      </c>
+      <c r="B157" t="s">
         <v>390</v>
-      </c>
-      <c r="B157" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B158" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -4711,18 +4711,18 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B160" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B161" t="s">
         <v>410</v>
-      </c>
-      <c r="B161" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -4751,50 +4751,50 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B165" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B167" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B168" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" t="s">
         <v>364</v>
-      </c>
-      <c r="B169" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B170" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -4823,10 +4823,10 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B174" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -4839,10 +4839,10 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -4863,82 +4863,82 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B179" t="s">
         <v>461</v>
-      </c>
-      <c r="B179" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834863D-53C1-485C-9DA2-1064FD780C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0717E-F7CF-40ED-A434-A541033D3C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="489">
   <si>
     <t>City</t>
   </si>
@@ -703,12 +703,6 @@
     <t>KnowledgeNative</t>
   </si>
   <si>
-    <t>Weitere Angaben</t>
-  </si>
-  <si>
-    <t>Further details</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1508,6 +1502,9 @@
   </si>
   <si>
     <t>Use your local account to log in.</t>
+  </si>
+  <si>
+    <t>Über</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1921,15 +1918,15 @@
         <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1942,18 +1939,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1974,18 +1971,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2022,50 +2019,50 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2094,10 +2091,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2110,18 +2107,18 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2134,42 +2131,42 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2190,18 +2187,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2222,26 +2219,26 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,26 +2251,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,10 +2299,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,26 +2315,26 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2382,10 +2379,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2406,10 +2403,10 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,42 +2419,42 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2542,42 +2539,42 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2670,18 +2667,18 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2742,82 +2739,82 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2854,18 +2851,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -2902,34 +2899,34 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2958,10 +2955,10 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2982,58 +2979,58 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -3070,34 +3067,34 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -3110,18 +3107,18 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -3166,18 +3163,18 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3190,18 +3187,18 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -3230,50 +3227,50 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -3302,10 +3299,10 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -3318,10 +3315,10 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -3342,74 +3339,74 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3427,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3450,15 +3447,15 @@
         <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3471,18 +3468,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3503,18 +3500,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3551,15 +3548,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -3567,34 +3564,34 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="s">
         <v>285</v>
-      </c>
-      <c r="B19" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3623,10 +3620,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3639,18 +3636,18 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" t="s">
         <v>270</v>
-      </c>
-      <c r="B26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3663,42 +3660,42 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" t="s">
         <v>402</v>
-      </c>
-      <c r="B31" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3719,18 +3716,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" t="s">
         <v>425</v>
-      </c>
-      <c r="B37" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3751,23 +3748,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
@@ -3783,26 +3780,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,10 +3828,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" t="s">
         <v>288</v>
-      </c>
-      <c r="B50" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3847,18 +3844,18 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -3903,10 +3900,10 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -3927,10 +3924,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -3943,42 +3940,42 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>354</v>
+      </c>
+      <c r="B65" t="s">
         <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -4063,42 +4060,42 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B80" t="s">
         <v>415</v>
-      </c>
-      <c r="B80" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -4191,18 +4188,18 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -4263,82 +4260,82 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B105" t="s">
         <v>428</v>
-      </c>
-      <c r="B105" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B107" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B108" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B110" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -4375,18 +4372,18 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B118" t="s">
         <v>453</v>
-      </c>
-      <c r="B118" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -4423,34 +4420,34 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" t="s">
         <v>291</v>
-      </c>
-      <c r="B126" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -4479,10 +4476,10 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -4503,58 +4500,58 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136" t="s">
         <v>435</v>
-      </c>
-      <c r="B136" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B140" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -4591,34 +4588,34 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" t="s">
         <v>441</v>
-      </c>
-      <c r="B145" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -4631,18 +4628,18 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -4687,18 +4684,18 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>386</v>
+      </c>
+      <c r="B157" t="s">
         <v>388</v>
-      </c>
-      <c r="B157" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B158" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -4711,18 +4708,18 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B160" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B161" t="s">
         <v>408</v>
-      </c>
-      <c r="B161" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -4751,50 +4748,50 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B167" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B168" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>360</v>
+      </c>
+      <c r="B169" t="s">
         <v>362</v>
-      </c>
-      <c r="B169" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B170" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -4823,10 +4820,10 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B174" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -4839,10 +4836,10 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -4863,82 +4860,82 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B179" t="s">
         <v>459</v>
-      </c>
-      <c r="B179" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0717E-F7CF-40ED-A434-A541033D3C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD66890-5525-4C5B-AE08-4AD829532EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="492">
   <si>
     <t>City</t>
   </si>
@@ -1505,6 +1505,15 @@
   </si>
   <si>
     <t>Über</t>
+  </si>
+  <si>
+    <t>NoResults</t>
+  </si>
+  <si>
+    <t>Keine Suchergebnisse für {0}</t>
+  </si>
+  <si>
+    <t>No results for {0}</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3407,6 +3416,14 @@
       </c>
       <c r="B188" s="5" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3422,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4938,6 +4955,14 @@
         <v>484</v>
       </c>
     </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B178">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2085" windowWidth="22500" windowHeight="14265" tabRatio="406" activeTab="1"/>
+    <workbookView xWindow="2895" yWindow="2085" windowWidth="22500" windowHeight="14265" tabRatio="406"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="499">
   <si>
     <t>City</t>
   </si>
@@ -1522,6 +1522,18 @@
   </si>
   <si>
     <t>AdText1a</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Kinder</t>
   </si>
 </sst>
 </file>
@@ -1910,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,6 +3452,22 @@
       </c>
       <c r="B190" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -3455,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4987,6 +5015,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23">
     <sortState ref="A2:B190">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2085" windowWidth="22500" windowHeight="14265" tabRatio="406"/>
+    <workbookView xWindow="2895" yWindow="2085" windowWidth="22500" windowHeight="14265" tabRatio="406" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="511">
   <si>
     <t>City</t>
   </si>
@@ -1534,6 +1534,42 @@
   </si>
   <si>
     <t>Kinder</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Concubinage</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>Keine Information</t>
+  </si>
+  <si>
+    <t>Verheiratet</t>
+  </si>
+  <si>
+    <t>Konkubinat</t>
+  </si>
+  <si>
+    <t>Geschieden</t>
+  </si>
+  <si>
+    <t>Verwitwet</t>
+  </si>
+  <si>
+    <t>NoInformation</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,1351 +2164,1399 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>495</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>105</v>
+        <v>497</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>448</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>396</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>197</v>
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>268</v>
+        <v>448</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>267</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>444</v>
+      <c r="A33" t="s">
+        <v>501</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>400</v>
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>446</v>
+      <c r="A36" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>266</v>
+        <v>399</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>21</v>
+        <v>399</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>33</v>
+      <c r="A39" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>257</v>
+      <c r="A40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>423</v>
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>143</v>
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
+        <v>256</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>243</v>
+        <v>422</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>142</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>314</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>221</v>
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>243</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>303</v>
+      <c r="A49" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>300</v>
+        <v>502</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>321</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>199</v>
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>24</v>
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>461</v>
+      <c r="A54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>286</v>
+        <v>107</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>457</v>
+        <v>199</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>366</v>
+      <c r="A58" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>139</v>
+      <c r="A60" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>139</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
+      <c r="A62" t="s">
+        <v>447</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>72</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
+      <c r="A64" t="s">
+        <v>139</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>241</v>
+        <v>69</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>302</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>202</v>
+        <v>353</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>193</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>34</v>
+        <v>213</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>140</v>
+      <c r="A82" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>219</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>469</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>470</v>
+        <v>34</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>471</v>
+      <c r="A86" t="s">
+        <v>140</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>472</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>297</v>
+      <c r="A90" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>318</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>486</v>
+        <v>153</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>3</v>
+        <v>412</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>161</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>20</v>
+      <c r="A101" t="s">
+        <v>166</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>131</v>
+      <c r="A103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>443</v>
+        <v>40</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>421</v>
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>169</v>
+      <c r="A109" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>173</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>64</v>
+      <c r="A112" t="s">
+        <v>510</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>67</v>
+      <c r="A113" t="s">
+        <v>167</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>463</v>
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>258</v>
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>261</v>
+        <v>94</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B124" s="5" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>295</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>310</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>311</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>309</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>312</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>136</v>
+      <c r="A126" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>138</v>
+      <c r="A127" t="s">
+        <v>311</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>45</v>
+      <c r="A128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>454</v>
+        <v>465</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>395</v>
+      <c r="A131" t="s">
+        <v>308</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>80</v>
+        <v>137</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>206</v>
+      <c r="A135" t="s">
+        <v>29</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>255</v>
+        <v>450</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>278</v>
+        <v>393</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>289</v>
+        <v>102</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>271</v>
+        <v>79</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>77</v>
+        <v>206</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>48</v>
+        <v>288</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>374</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>374</v>
+      <c r="A146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>368</v>
+      <c r="A147" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>433</v>
+        <v>53</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>376</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>377</v>
+      <c r="A149" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>384</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>378</v>
+      <c r="A150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>379</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>380</v>
+      <c r="A151" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>126</v>
+      <c r="A153" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>4</v>
+        <v>432</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>116</v>
+      <c r="A155" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>25</v>
+      <c r="A156" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>438</v>
+      <c r="A157" t="s">
+        <v>379</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>251</v>
+      <c r="A158" t="s">
+        <v>370</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>228</v>
+        <v>112</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>28</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>28</v>
+      <c r="A161" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>237</v>
+      <c r="A162" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>239</v>
+        <v>438</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>5</v>
+      <c r="A165" t="s">
+        <v>499</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>6</v>
+        <v>228</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>23</v>
+        <v>231</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>111</v>
+      <c r="A168" t="s">
+        <v>28</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>385</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>386</v>
+        <v>237</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>408</v>
+        <v>238</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>402</v>
+        <v>5</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>406</v>
+        <v>6</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>164</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>182</v>
+      <c r="A174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>190</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>191</v>
+      <c r="A175" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>117</v>
+      <c r="A176" t="s">
+        <v>385</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>304</v>
+      <c r="A177" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>325</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>306</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>327</v>
+      <c r="A178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>305</v>
+      <c r="A180" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>164</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>159</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>178</v>
+      <c r="A183" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>305</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>359</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>307</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>159</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>160</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B193" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B194" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B195" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>503</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B197" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B198" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B23">
-    <sortState ref="A2:B190">
+    <sortState ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
@@ -3483,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,1351 +3773,1399 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>448</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>398</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" t="s">
-        <v>198</v>
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" t="s">
-        <v>269</v>
+        <v>448</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>267</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B33" t="s">
-        <v>451</v>
+      <c r="A33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B35" t="s">
-        <v>401</v>
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>446</v>
+      <c r="A36" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="B36" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>399</v>
+      </c>
+      <c r="B37" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>399</v>
+      </c>
+      <c r="B38" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>19</v>
+      <c r="A39" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>256</v>
+      <c r="A40" t="s">
+        <v>264</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B41" t="s">
-        <v>424</v>
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>243</v>
+        <v>422</v>
+      </c>
+      <c r="B44" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" t="s">
-        <v>125</v>
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>74</v>
+        <v>243</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>303</v>
+      <c r="A49" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" t="s">
-        <v>341</v>
+        <v>502</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>200</v>
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>24</v>
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>462</v>
+      <c r="A54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" t="s">
-        <v>287</v>
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B56" t="s">
-        <v>458</v>
+        <v>199</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B58" t="s">
-        <v>367</v>
+      <c r="A58" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>139</v>
+      <c r="A60" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
+      <c r="A62" t="s">
+        <v>447</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
+      </c>
+      <c r="B63" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
+      <c r="A64" t="s">
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>242</v>
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B70" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B71" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>302</v>
-      </c>
-      <c r="B72" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>193</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>140</v>
+      <c r="A82" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>473</v>
+        <v>220</v>
+      </c>
+      <c r="B84" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>475</v>
+        <v>34</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B88" t="s">
-        <v>415</v>
+        <v>468</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B89" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>297</v>
-      </c>
-      <c r="B90" t="s">
-        <v>338</v>
+        <v>470</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B91" t="s">
-        <v>485</v>
+        <v>153</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B92" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>412</v>
+      </c>
+      <c r="B93" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B96" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>161</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B99" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
+      </c>
+      <c r="B100" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>20</v>
+      <c r="A101" t="s">
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>131</v>
+      <c r="A103" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B104" t="s">
-        <v>442</v>
+        <v>40</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B105" t="s">
-        <v>420</v>
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>98</v>
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" t="s">
-        <v>189</v>
+        <v>204</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s">
-        <v>176</v>
+        <v>131</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>169</v>
+      <c r="A109" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>489</v>
+        <v>419</v>
+      </c>
+      <c r="B110" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>81</v>
+      <c r="A112" t="s">
+        <v>510</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>67</v>
+      <c r="A113" t="s">
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>464</v>
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>259</v>
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B116" t="s">
-        <v>427</v>
+        <v>488</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" t="s">
-        <v>263</v>
+        <v>94</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B122" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B124" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>295</v>
-      </c>
-      <c r="B119" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>310</v>
-      </c>
-      <c r="B120" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>311</v>
-      </c>
-      <c r="B121" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>309</v>
-      </c>
-      <c r="B122" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>312</v>
-      </c>
-      <c r="B123" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>46</v>
+      <c r="A126" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>144</v>
+      <c r="A127" t="s">
+        <v>311</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>46</v>
+      <c r="A128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="B129" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B130" t="s">
-        <v>452</v>
+        <v>465</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>393</v>
+      <c r="A131" t="s">
+        <v>308</v>
       </c>
       <c r="B131" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B133" t="s">
-        <v>85</v>
+        <v>137</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>206</v>
+      <c r="A135" t="s">
+        <v>29</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>252</v>
+        <v>450</v>
+      </c>
+      <c r="B136" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B138" t="s">
-        <v>290</v>
+        <v>102</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" t="s">
-        <v>75</v>
+        <v>206</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
+      </c>
+      <c r="B143" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>49</v>
+        <v>288</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>57</v>
+        <v>273</v>
+      </c>
+      <c r="B145" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>374</v>
-      </c>
-      <c r="B146" t="s">
-        <v>375</v>
+      <c r="A146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>368</v>
+      <c r="A147" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B148" t="s">
-        <v>434</v>
+        <v>53</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>376</v>
-      </c>
-      <c r="B149" t="s">
-        <v>381</v>
+      <c r="A149" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>384</v>
-      </c>
-      <c r="B150" t="s">
-        <v>382</v>
+      <c r="A150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>379</v>
-      </c>
-      <c r="B151" t="s">
-        <v>383</v>
+      <c r="A151" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B152" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>125</v>
+      <c r="A153" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>13</v>
+        <v>432</v>
+      </c>
+      <c r="B154" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>120</v>
+      <c r="A155" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>26</v>
+      <c r="A156" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>438</v>
+      <c r="A157" t="s">
+        <v>379</v>
       </c>
       <c r="B157" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>253</v>
+      <c r="A158" t="s">
+        <v>370</v>
+      </c>
+      <c r="B158" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B159" t="s">
-        <v>228</v>
+        <v>112</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>28</v>
+      <c r="A161" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>237</v>
+      <c r="A162" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>240</v>
+        <v>438</v>
+      </c>
+      <c r="B163" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>14</v>
+      <c r="A165" t="s">
+        <v>499</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>228</v>
+      </c>
+      <c r="B166" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>111</v>
+      <c r="A168" t="s">
+        <v>28</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>385</v>
-      </c>
-      <c r="B169" t="s">
-        <v>387</v>
+        <v>237</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B170" t="s">
-        <v>431</v>
+        <v>238</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B172" t="s">
-        <v>404</v>
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B173" t="s">
-        <v>407</v>
+        <v>6</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>164</v>
-      </c>
-      <c r="B174" t="s">
-        <v>188</v>
+      <c r="A174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>190</v>
-      </c>
-      <c r="B175" t="s">
-        <v>192</v>
+      <c r="A175" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>117</v>
+      <c r="A176" t="s">
+        <v>385</v>
+      </c>
+      <c r="B176" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>304</v>
+      <c r="A177" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="B177" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>306</v>
-      </c>
-      <c r="B178" t="s">
-        <v>347</v>
+      <c r="A178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B179" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>305</v>
+      <c r="A180" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B180" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>159</v>
-      </c>
-      <c r="B183" t="s">
-        <v>184</v>
+      <c r="A183" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>305</v>
+      </c>
+      <c r="B187" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>359</v>
+      </c>
+      <c r="B188" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>307</v>
+      </c>
+      <c r="B189" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>160</v>
+      </c>
+      <c r="B191" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B193" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>503</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B23">
-    <sortState ref="A2:B190">
+    <sortState ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A4A028-562C-41A4-A962-38D33A9E567B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2085" windowWidth="22500" windowHeight="14265" tabRatio="406" activeTab="1"/>
+    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -24,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="525">
   <si>
     <t>City</t>
   </si>
@@ -1570,12 +1563,54 @@
   </si>
   <si>
     <t>NoInformation</t>
+  </si>
+  <si>
+    <t>IssuedOn</t>
+  </si>
+  <si>
+    <t>ExpiresOn</t>
+  </si>
+  <si>
+    <t>Issued on</t>
+  </si>
+  <si>
+    <t>Expires on</t>
+  </si>
+  <si>
+    <t>Ausgestellt am</t>
+  </si>
+  <si>
+    <t>Verfällt am</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>Zivilstand</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>Bürgerort</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Telefonnummer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1646,7 +1681,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1957,20 +1992,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B198"/>
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="80.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="80.1796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +2013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1986,7 +2021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -1994,7 +2029,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -2002,7 +2037,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -2018,7 +2053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -2034,7 +2069,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -2042,7 +2077,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2058,7 +2093,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2066,7 +2101,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2074,7 +2109,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2082,7 +2117,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2098,7 +2133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2114,7 +2149,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -2122,7 +2157,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -2138,7 +2173,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -2146,7 +2181,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2154,7 +2189,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -2162,7 +2197,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -2170,7 +2205,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2186,7 +2221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2194,7 +2229,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -2210,7 +2245,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -2218,7 +2253,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -2226,7 +2261,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -2234,7 +2269,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -2242,7 +2277,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2250,7 +2285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -2258,7 +2293,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -2274,7 +2309,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -2282,7 +2317,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -2290,7 +2325,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2298,7 +2333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2306,7 +2341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -2314,7 +2349,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2330,7 +2365,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2338,7 +2373,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -2346,7 +2381,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -2362,7 +2397,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -2370,7 +2405,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -2386,7 +2421,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -2402,7 +2437,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2410,7 +2445,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -2418,7 +2453,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2426,7 +2461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -2434,7 +2469,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -2442,7 +2477,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -2450,7 +2485,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2458,7 +2493,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -2466,7 +2501,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2482,7 +2517,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2490,7 +2525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2498,7 +2533,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2514,7 +2549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -2522,7 +2557,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,7 +2565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2538,7 +2573,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -2546,7 +2581,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2554,7 +2589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -2562,7 +2597,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -2570,7 +2605,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -2578,7 +2613,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -2586,7 +2621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -2594,7 +2629,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2602,7 +2637,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2610,7 +2645,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -2618,7 +2653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -2626,7 +2661,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -2634,7 +2669,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2650,7 +2685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -2658,7 +2693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -2674,7 +2709,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -2682,7 +2717,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -2690,7 +2725,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2698,7 +2733,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -2706,7 +2741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -2714,7 +2749,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -2722,7 +2757,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -2730,7 +2765,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -2738,7 +2773,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -2754,7 +2789,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -2762,7 +2797,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2778,7 +2813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2786,7 +2821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -2794,7 +2829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -2802,7 +2837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -2810,7 +2845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,7 +2853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -2826,7 +2861,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -2834,7 +2869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -2842,7 +2877,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -2850,7 +2885,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -2866,7 +2901,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -2874,7 +2909,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -2890,7 +2925,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -2906,7 +2941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -2914,7 +2949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -2922,7 +2957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -2930,7 +2965,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -2938,7 +2973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -2946,7 +2981,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -2954,7 +2989,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -2962,7 +2997,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -2970,7 +3005,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -2978,7 +3013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -2986,7 +3021,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -2994,7 +3029,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -3002,7 +3037,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -3018,7 +3053,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3026,7 +3061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3034,7 +3069,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,7 +3077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -3050,7 +3085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -3058,7 +3093,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -3066,7 +3101,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -3074,7 +3109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -3082,7 +3117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -3090,7 +3125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -3106,7 +3141,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -3114,7 +3149,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3122,7 +3157,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -3130,7 +3165,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -3138,7 +3173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -3146,7 +3181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -3162,7 +3197,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -3170,7 +3205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3178,7 +3213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -3186,7 +3221,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -3194,7 +3229,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -3202,7 +3237,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -3210,7 +3245,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -3218,7 +3253,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -3226,7 +3261,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -3234,7 +3269,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -3242,7 +3277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -3258,7 +3293,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -3266,7 +3301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -3274,7 +3309,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -3282,7 +3317,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -3290,7 +3325,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -3298,7 +3333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -3306,7 +3341,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -3314,7 +3349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -3322,7 +3357,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -3330,7 +3365,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3338,7 +3373,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3354,7 +3389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -3370,7 +3405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -3378,7 +3413,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -3386,7 +3421,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -3394,7 +3429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -3402,7 +3437,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -3418,7 +3453,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3426,7 +3461,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -3434,7 +3469,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -3442,7 +3477,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -3450,7 +3485,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -3458,7 +3493,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -3466,7 +3501,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -3474,7 +3509,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -3482,7 +3517,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3490,7 +3525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3498,7 +3533,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -3506,7 +3541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -3514,7 +3549,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -3522,7 +3557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -3530,7 +3565,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -3538,7 +3573,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -3546,7 +3581,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -3554,9 +3589,49 @@
         <v>9</v>
       </c>
     </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>517</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B198">
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
@@ -3566,20 +3641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B198"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3587,7 +3662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3595,7 +3670,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -3603,7 +3678,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -3611,7 +3686,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -3619,7 +3694,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -3627,7 +3702,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -3635,7 +3710,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -3643,7 +3718,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3651,7 +3726,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3659,7 +3734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3667,7 +3742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3675,7 +3750,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3683,7 +3758,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -3691,7 +3766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -3699,7 +3774,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3707,7 +3782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3723,7 +3798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -3731,7 +3806,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -3739,7 +3814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -3747,7 +3822,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -3755,7 +3830,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -3763,7 +3838,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -3771,7 +3846,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -3779,7 +3854,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -3787,7 +3862,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3795,7 +3870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -3803,7 +3878,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3811,7 +3886,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -3819,7 +3894,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -3827,7 +3902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -3835,7 +3910,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -3843,7 +3918,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -3851,7 +3926,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -3859,7 +3934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -3867,7 +3942,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -3875,7 +3950,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -3883,7 +3958,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -3891,7 +3966,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -3899,7 +3974,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -3907,7 +3982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -3915,7 +3990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -3923,7 +3998,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -3931,7 +4006,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -3939,7 +4014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -3947,7 +4022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -3955,7 +4030,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -3963,7 +4038,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -3971,7 +4046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -3979,7 +4054,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -3987,7 +4062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -3995,7 +4070,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4003,7 +4078,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -4011,7 +4086,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -4019,7 +4094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -4027,7 +4102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -4035,7 +4110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -4043,7 +4118,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -4051,7 +4126,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -4059,7 +4134,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -4067,7 +4142,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -4075,7 +4150,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -4083,7 +4158,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4091,7 +4166,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -4099,7 +4174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -4107,7 +4182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4115,7 +4190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4123,7 +4198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -4131,7 +4206,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4139,7 +4214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -4147,7 +4222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4155,7 +4230,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4163,7 +4238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4171,7 +4246,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -4179,7 +4254,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -4187,7 +4262,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4195,7 +4270,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -4203,7 +4278,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4211,7 +4286,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4219,7 +4294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -4227,7 +4302,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -4235,7 +4310,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -4243,7 +4318,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -4251,7 +4326,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -4259,7 +4334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4267,7 +4342,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4275,7 +4350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -4283,7 +4358,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -4291,7 +4366,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -4299,7 +4374,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -4307,7 +4382,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -4315,7 +4390,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -4323,7 +4398,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -4331,7 +4406,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -4339,7 +4414,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -4347,7 +4422,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4355,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -4363,7 +4438,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -4371,7 +4446,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -4379,7 +4454,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -4387,7 +4462,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4395,7 +4470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4403,7 +4478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -4411,7 +4486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4419,7 +4494,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4427,7 +4502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -4435,7 +4510,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -4443,7 +4518,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -4451,7 +4526,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -4459,7 +4534,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -4467,7 +4542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -4475,7 +4550,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -4483,7 +4558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4491,7 +4566,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4499,7 +4574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -4507,7 +4582,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -4515,7 +4590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -4523,7 +4598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -4531,7 +4606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -4539,7 +4614,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -4547,7 +4622,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -4555,7 +4630,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -4563,7 +4638,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -4571,7 +4646,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -4579,7 +4654,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -4587,7 +4662,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -4595,7 +4670,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -4603,7 +4678,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -4611,7 +4686,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -4619,7 +4694,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -4627,7 +4702,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4635,7 +4710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -4643,7 +4718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -4651,7 +4726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -4659,7 +4734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -4667,7 +4742,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -4675,7 +4750,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -4683,7 +4758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4691,7 +4766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -4699,7 +4774,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -4707,7 +4782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -4715,7 +4790,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -4723,7 +4798,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -4731,7 +4806,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -4739,7 +4814,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -4747,7 +4822,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -4755,7 +4830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -4763,7 +4838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -4771,7 +4846,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -4779,7 +4854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -4787,7 +4862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -4795,7 +4870,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -4803,7 +4878,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -4811,7 +4886,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -4819,7 +4894,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -4827,7 +4902,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -4835,7 +4910,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -4843,7 +4918,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -4851,7 +4926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -4859,7 +4934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -4867,7 +4942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -4875,7 +4950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -4883,7 +4958,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -4891,7 +4966,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -4899,7 +4974,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -4907,7 +4982,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -4915,7 +4990,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -4923,7 +4998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -4931,7 +5006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -4939,7 +5014,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -4947,7 +5022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +5030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4963,7 +5038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -4971,7 +5046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -4979,7 +5054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -4987,7 +5062,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -4995,7 +5070,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -5003,7 +5078,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -5011,7 +5086,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -5019,7 +5094,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -5027,7 +5102,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -5035,7 +5110,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -5043,7 +5118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -5051,7 +5126,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -5059,7 +5134,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -5067,7 +5142,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -5075,7 +5150,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -5083,7 +5158,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -5091,7 +5166,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -5099,7 +5174,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -5107,7 +5182,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5115,7 +5190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -5123,7 +5198,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -5131,7 +5206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -5139,7 +5214,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -5147,7 +5222,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -5155,7 +5230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -5163,9 +5238,49 @@
         <v>41</v>
       </c>
     </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>517</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>522</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B198">
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A4A028-562C-41A4-A962-38D33A9E567B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2B332-26E4-43B4-9D94-42A4E8CE4AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="534">
   <si>
     <t>City</t>
   </si>
@@ -1605,6 +1605,33 @@
   </si>
   <si>
     <t>Telefonnummer</t>
+  </si>
+  <si>
+    <t>EnterSkill</t>
+  </si>
+  <si>
+    <t>Bitte drücken Sie die Enter-Taste um einen neuen Skill einzufügen</t>
+  </si>
+  <si>
+    <t>Please press Enter to insert a new Skill</t>
+  </si>
+  <si>
+    <t>Abroad</t>
+  </si>
+  <si>
+    <t>Abroad stay</t>
+  </si>
+  <si>
+    <t>Auslandaufenthalt</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Referenzen</t>
   </si>
 </sst>
 </file>
@@ -1993,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3627,6 +3654,30 @@
       </c>
       <c r="B203" s="5" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>528</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -3642,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5278,6 +5329,30 @@
         <v>524</v>
       </c>
     </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B204" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>528</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2B332-26E4-43B4-9D94-42A4E8CE4AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC62D1C-C4EA-49B8-AB9B-85E1A88266DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="2090" windowWidth="22500" windowHeight="14260" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="27000" windowHeight="17244" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="544">
   <si>
     <t>City</t>
   </si>
@@ -1632,6 +1632,36 @@
   </si>
   <si>
     <t>Referenzen</t>
+  </si>
+  <si>
+    <t>Sonst. Zivilstand</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>VariousMaritalStatus</t>
+  </si>
+  <si>
+    <t>NeverExpires</t>
+  </si>
+  <si>
+    <t>Unbegrenzt gültig</t>
+  </si>
+  <si>
+    <t>Never expires</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Zertifikat</t>
+  </si>
+  <si>
+    <t>Certificates</t>
+  </si>
+  <si>
+    <t>Zertifikate</t>
   </si>
 </sst>
 </file>
@@ -2020,19 +2050,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:B206"/>
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="80.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
+    <col min="2" max="2" width="80.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2048,7 +2078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -2056,7 +2086,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -2064,7 +2094,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -2072,7 +2102,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -2080,7 +2110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -2088,7 +2118,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -2096,7 +2126,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -2104,7 +2134,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2120,7 +2150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2128,7 +2158,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2136,7 +2166,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2144,7 +2174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -2152,7 +2182,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2160,7 +2190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2168,7 +2198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2176,7 +2206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -2184,7 +2214,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -2192,7 +2222,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -2200,7 +2230,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -2208,7 +2238,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2216,7 +2246,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -2224,7 +2254,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -2232,7 +2262,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -2240,7 +2270,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2248,7 +2278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2256,7 +2286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -2272,7 +2302,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -2280,7 +2310,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -2288,7 +2318,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -2296,7 +2326,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -2304,7 +2334,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2312,7 +2342,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -2320,7 +2350,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -2328,7 +2358,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -2336,7 +2366,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -2344,7 +2374,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -2352,7 +2382,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2360,7 +2390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2368,7 +2398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -2376,7 +2406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -2384,7 +2414,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2392,7 +2422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2400,7 +2430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -2408,7 +2438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -2416,7 +2446,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -2424,7 +2454,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -2432,7 +2462,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2440,7 +2470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -2448,7 +2478,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2456,7 +2486,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -2464,7 +2494,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2472,7 +2502,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -2480,7 +2510,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2488,7 +2518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -2496,7 +2526,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -2504,7 +2534,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -2512,7 +2542,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2520,7 +2550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -2528,7 +2558,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -2536,7 +2566,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2544,7 +2574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2552,7 +2582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2560,7 +2590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2576,7 +2606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -2584,7 +2614,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -2592,7 +2622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2600,7 +2630,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -2608,7 +2638,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2616,7 +2646,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -2624,7 +2654,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -2632,7 +2662,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -2640,7 +2670,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -2648,7 +2678,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -2656,7 +2686,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2664,7 +2694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2672,7 +2702,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -2680,7 +2710,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -2688,7 +2718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -2696,7 +2726,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -2704,7 +2734,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2712,7 +2742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -2720,7 +2750,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2728,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -2736,7 +2766,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -2744,7 +2774,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -2752,7 +2782,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2760,7 +2790,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -2768,7 +2798,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -2776,7 +2806,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -2784,7 +2814,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -2792,7 +2822,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -2800,7 +2830,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2808,7 +2838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -2816,7 +2846,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -2824,7 +2854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -2832,7 +2862,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2840,7 +2870,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2848,7 +2878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -2856,7 +2886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -2864,7 +2894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -2872,7 +2902,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2880,7 +2910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -2888,7 +2918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -2896,7 +2926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -2904,7 +2934,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -2912,7 +2942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -2920,7 +2950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -2928,7 +2958,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -2936,7 +2966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -2944,7 +2974,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -2952,7 +2982,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -2960,7 +2990,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -2968,7 +2998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -2976,7 +3006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -2984,7 +3014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -3000,7 +3030,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -3008,7 +3038,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -3016,7 +3046,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -3024,7 +3054,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -3032,7 +3062,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -3040,7 +3070,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -3048,7 +3078,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -3056,7 +3086,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -3064,7 +3094,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -3072,7 +3102,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -3080,7 +3110,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3088,7 +3118,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3096,7 +3126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +3134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -3112,7 +3142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -3120,7 +3150,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -3128,7 +3158,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -3136,7 +3166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -3144,7 +3174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -3152,7 +3182,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -3160,7 +3190,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -3168,7 +3198,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -3176,7 +3206,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3184,7 +3214,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -3192,7 +3222,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -3200,7 +3230,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,7 +3238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -3216,7 +3246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -3224,7 +3254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -3232,7 +3262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3240,7 +3270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -3248,7 +3278,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -3256,7 +3286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -3264,7 +3294,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -3272,7 +3302,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -3280,7 +3310,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -3288,7 +3318,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -3296,7 +3326,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -3304,7 +3334,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -3320,7 +3350,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -3328,7 +3358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -3336,7 +3366,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -3344,7 +3374,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -3352,7 +3382,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -3360,7 +3390,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -3368,7 +3398,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -3376,7 +3406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -3384,7 +3414,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -3392,7 +3422,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3400,7 +3430,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3408,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3424,7 +3454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -3432,7 +3462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -3440,7 +3470,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -3448,7 +3478,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -3456,7 +3486,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -3464,7 +3494,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -3472,7 +3502,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -3480,7 +3510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3488,7 +3518,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -3496,7 +3526,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -3504,7 +3534,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -3512,7 +3542,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -3520,7 +3550,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -3528,7 +3558,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -3536,7 +3566,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -3544,7 +3574,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3552,7 +3582,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3560,7 +3590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -3568,7 +3598,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -3576,7 +3606,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -3584,7 +3614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -3592,7 +3622,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -3600,7 +3630,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -3608,7 +3638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -3616,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -3624,7 +3654,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -3632,7 +3662,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -3640,7 +3670,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -3648,7 +3678,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>522</v>
       </c>
@@ -3656,7 +3686,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -3664,7 +3694,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -3672,12 +3702,44 @@
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>532</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>536</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>540</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>542</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -3693,19 +3755,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:B206"/>
+      <selection activeCell="A210" sqref="A210:B210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3721,7 +3783,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -3729,7 +3791,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -3737,7 +3799,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -3745,7 +3807,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -3753,7 +3815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -3761,7 +3823,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -3769,7 +3831,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3777,7 +3839,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3785,7 +3847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3793,7 +3855,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3801,7 +3863,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3809,7 +3871,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -3817,7 +3879,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -3825,7 +3887,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3833,7 +3895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3841,7 +3903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3849,7 +3911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -3857,7 +3919,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -3865,7 +3927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -3873,7 +3935,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -3881,7 +3943,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -3889,7 +3951,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -3897,7 +3959,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -3905,7 +3967,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -3913,7 +3975,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3921,7 +3983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -3929,7 +3991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -3945,7 +4007,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -3953,7 +4015,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -3961,7 +4023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -3969,7 +4031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -3977,7 +4039,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -3985,7 +4047,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -3993,7 +4055,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -4001,7 +4063,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -4009,7 +4071,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -4017,7 +4079,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -4025,7 +4087,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4033,7 +4095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -4041,7 +4103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -4049,7 +4111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -4057,7 +4119,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -4065,7 +4127,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -4073,7 +4135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -4081,7 +4143,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -4089,7 +4151,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -4097,7 +4159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -4105,7 +4167,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4113,7 +4175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -4121,7 +4183,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4129,7 +4191,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -4137,7 +4199,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -4145,7 +4207,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -4153,7 +4215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -4161,7 +4223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -4169,7 +4231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -4177,7 +4239,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -4185,7 +4247,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -4193,7 +4255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -4201,7 +4263,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -4209,7 +4271,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4217,7 +4279,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -4225,7 +4287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -4233,7 +4295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4241,7 +4303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4249,7 +4311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -4257,7 +4319,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4265,7 +4327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -4273,7 +4335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4281,7 +4343,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4289,7 +4351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4297,7 +4359,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -4305,7 +4367,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -4313,7 +4375,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4321,7 +4383,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -4329,7 +4391,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4337,7 +4399,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4345,7 +4407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -4353,7 +4415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -4361,7 +4423,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -4369,7 +4431,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -4377,7 +4439,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -4385,7 +4447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4393,7 +4455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4401,7 +4463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -4409,7 +4471,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -4417,7 +4479,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -4425,7 +4487,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -4433,7 +4495,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -4441,7 +4503,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -4449,7 +4511,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -4457,7 +4519,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -4465,7 +4527,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -4473,7 +4535,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4481,7 +4543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -4489,7 +4551,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -4497,7 +4559,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -4505,7 +4567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -4513,7 +4575,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4521,7 +4583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4529,7 +4591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -4537,7 +4599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4545,7 +4607,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4553,7 +4615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -4561,7 +4623,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -4569,7 +4631,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -4577,7 +4639,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -4585,7 +4647,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -4593,7 +4655,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -4601,7 +4663,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -4609,7 +4671,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4617,7 +4679,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4625,7 +4687,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -4633,7 +4695,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -4641,7 +4703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -4649,7 +4711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -4657,7 +4719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -4665,7 +4727,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -4673,7 +4735,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -4681,7 +4743,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -4689,7 +4751,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -4697,7 +4759,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -4705,7 +4767,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -4713,7 +4775,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -4721,7 +4783,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -4729,7 +4791,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -4737,7 +4799,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -4745,7 +4807,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -4753,7 +4815,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4761,7 +4823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -4769,7 +4831,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -4777,7 +4839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -4785,7 +4847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -4793,7 +4855,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -4801,7 +4863,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -4809,7 +4871,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4817,7 +4879,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -4825,7 +4887,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -4833,7 +4895,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -4841,7 +4903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -4849,7 +4911,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -4857,7 +4919,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -4865,7 +4927,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -4873,7 +4935,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -4881,7 +4943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -4889,7 +4951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -4897,7 +4959,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -4905,7 +4967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -4913,7 +4975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -4921,7 +4983,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -4929,7 +4991,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -4937,7 +4999,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -4945,7 +5007,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -4953,7 +5015,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -4961,7 +5023,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -4969,7 +5031,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -4977,7 +5039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -4985,7 +5047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -4993,7 +5055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -5001,7 +5063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -5009,7 +5071,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -5017,7 +5079,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -5025,7 +5087,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -5033,7 +5095,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -5041,7 +5103,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -5049,7 +5111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -5057,7 +5119,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -5065,7 +5127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -5073,7 +5135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -5089,7 +5151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -5097,7 +5159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -5105,7 +5167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -5113,7 +5175,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -5121,7 +5183,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -5129,7 +5191,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -5137,7 +5199,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -5145,7 +5207,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -5153,7 +5215,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -5161,7 +5223,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -5169,7 +5231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -5177,7 +5239,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -5185,7 +5247,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -5193,7 +5255,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -5201,7 +5263,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -5209,7 +5271,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -5217,7 +5279,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -5225,7 +5287,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -5233,7 +5295,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5241,7 +5303,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -5249,7 +5311,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -5257,7 +5319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -5265,7 +5327,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -5273,7 +5335,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -5281,7 +5343,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -5289,7 +5351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -5297,7 +5359,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -5305,7 +5367,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -5313,7 +5375,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -5321,7 +5383,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>522</v>
       </c>
@@ -5329,7 +5391,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -5337,7 +5399,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -5345,12 +5407,44 @@
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>536</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>540</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>542</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC62D1C-C4EA-49B8-AB9B-85E1A88266DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="27000" windowHeight="17244" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3450" windowWidth="27000" windowHeight="17250" tabRatio="406"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="546">
   <si>
     <t>City</t>
   </si>
@@ -1662,12 +1661,18 @@
   </si>
   <si>
     <t>Zertifikate</t>
+  </si>
+  <si>
+    <t>Issuer</t>
+  </si>
+  <si>
+    <t>Aussteller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1738,7 +1743,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2049,20 +2054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="80.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2078,7 +2083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -2094,7 +2099,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -2126,7 +2131,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -2222,7 +2227,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -2270,7 +2275,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2278,7 +2283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -2310,7 +2315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -2318,7 +2323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -2446,7 +2451,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2606,7 +2611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2646,7 +2651,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -2678,7 +2683,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -2726,7 +2731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2790,7 +2795,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -2806,7 +2811,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -2830,7 +2835,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -2846,7 +2851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -2862,7 +2867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2878,7 +2883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -2902,7 +2907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -2926,7 +2931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -2934,7 +2939,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -2950,7 +2955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -2966,7 +2971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -2990,7 +2995,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -3014,7 +3019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -3030,7 +3035,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -3038,7 +3043,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -3046,7 +3051,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -3054,7 +3059,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -3062,7 +3067,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3126,7 +3131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -3134,7 +3139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -3166,7 +3171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -3182,7 +3187,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -3222,7 +3227,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -3230,7 +3235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -3238,7 +3243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -3246,7 +3251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3270,7 +3275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -3286,7 +3291,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -3318,7 +3323,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -3326,7 +3331,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -3366,7 +3371,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -3390,7 +3395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -3398,7 +3403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -3422,7 +3427,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -3462,7 +3467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -3470,7 +3475,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -3478,7 +3483,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -3494,7 +3499,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -3534,7 +3539,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -3542,7 +3547,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -3558,7 +3563,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -3566,7 +3571,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -3574,7 +3579,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -3630,7 +3635,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -3638,7 +3643,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -3646,7 +3651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -3662,7 +3667,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -3670,7 +3675,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>522</v>
       </c>
@@ -3686,7 +3691,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -3726,7 +3731,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -3742,9 +3747,17 @@
         <v>542</v>
       </c>
     </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>544</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
@@ -3754,20 +3767,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210:B210"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3775,7 +3788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -3807,7 +3820,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -3815,7 +3828,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -3823,7 +3836,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -3831,7 +3844,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3855,7 +3868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3863,7 +3876,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3871,7 +3884,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -3879,7 +3892,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -3887,7 +3900,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3903,7 +3916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3911,7 +3924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -3927,7 +3940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -3935,7 +3948,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -3943,7 +3956,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -3951,7 +3964,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -3959,7 +3972,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -3967,7 +3980,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -3975,7 +3988,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3983,7 +3996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,7 +4004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -4007,7 +4020,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -4015,7 +4028,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -4023,7 +4036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -4031,7 +4044,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -4039,7 +4052,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -4055,7 +4068,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -4063,7 +4076,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -4071,7 +4084,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -4079,7 +4092,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -4103,7 +4116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -4111,7 +4124,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -4119,7 +4132,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -4127,7 +4140,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -4135,7 +4148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -4143,7 +4156,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -4151,7 +4164,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -4159,7 +4172,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -4167,7 +4180,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -4183,7 +4196,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4191,7 +4204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -4199,7 +4212,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -4207,7 +4220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -4215,7 +4228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -4239,7 +4252,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -4247,7 +4260,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -4255,7 +4268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -4263,7 +4276,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -4271,7 +4284,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4279,7 +4292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,7 +4300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -4295,7 +4308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4311,7 +4324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -4319,7 +4332,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4327,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -4335,7 +4348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4343,7 +4356,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4359,7 +4372,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -4367,7 +4380,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -4375,7 +4388,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4383,7 +4396,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -4391,7 +4404,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4399,7 +4412,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4407,7 +4420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -4415,7 +4428,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -4423,7 +4436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -4431,7 +4444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -4439,7 +4452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -4447,7 +4460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4455,7 +4468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4463,7 +4476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -4471,7 +4484,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -4487,7 +4500,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -4495,7 +4508,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -4503,7 +4516,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -4511,7 +4524,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -4519,7 +4532,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -4551,7 +4564,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -4559,7 +4572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -4567,7 +4580,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -4575,7 +4588,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4583,7 +4596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4591,7 +4604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4607,7 +4620,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4615,7 +4628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -4623,7 +4636,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -4631,7 +4644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -4639,7 +4652,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -4655,7 +4668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -4671,7 +4684,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4679,7 +4692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -4695,7 +4708,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -4703,7 +4716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -4711,7 +4724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -4719,7 +4732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -4727,7 +4740,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -4743,7 +4756,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -4751,7 +4764,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -4759,7 +4772,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -4775,7 +4788,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -4783,7 +4796,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -4791,7 +4804,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -4799,7 +4812,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -4807,7 +4820,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -4815,7 +4828,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4823,7 +4836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -4831,7 +4844,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -4839,7 +4852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -4855,7 +4868,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -4863,7 +4876,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4879,7 +4892,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -4895,7 +4908,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -4903,7 +4916,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -4911,7 +4924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -4919,7 +4932,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -4927,7 +4940,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -4935,7 +4948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -4943,7 +4956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -4951,7 +4964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -4959,7 +4972,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -4967,7 +4980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -4983,7 +4996,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -4991,7 +5004,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -5015,7 +5028,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -5023,7 +5036,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -5031,7 +5044,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -5039,7 +5052,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +5060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -5055,7 +5068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -5063,7 +5076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -5071,7 +5084,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -5079,7 +5092,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -5087,7 +5100,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -5095,7 +5108,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -5103,7 +5116,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -5111,7 +5124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -5119,7 +5132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -5127,7 +5140,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -5135,7 +5148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -5159,7 +5172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -5167,7 +5180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -5175,7 +5188,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -5183,7 +5196,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -5199,7 +5212,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -5207,7 +5220,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -5215,7 +5228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -5223,7 +5236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -5231,7 +5244,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -5263,7 +5276,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -5271,7 +5284,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -5287,7 +5300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -5295,7 +5308,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5303,7 +5316,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -5311,7 +5324,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,7 +5332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -5327,7 +5340,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -5335,7 +5348,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -5343,7 +5356,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -5359,7 +5372,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -5367,7 +5380,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -5375,7 +5388,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -5383,7 +5396,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>522</v>
       </c>
@@ -5391,7 +5404,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -5399,7 +5412,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -5407,7 +5420,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -5415,7 +5428,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -5423,7 +5436,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -5431,7 +5444,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -5439,7 +5452,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -5447,9 +5460,17 @@
         <v>543</v>
       </c>
     </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>544</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="553">
   <si>
     <t>City</t>
   </si>
@@ -1667,6 +1667,27 @@
   </si>
   <si>
     <t>Aussteller</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Referenz</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Kurse</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Kurs</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+      <selection activeCell="B214" sqref="B214:B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3733,7 @@
         <v>531</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,6 +3774,38 @@
       </c>
       <c r="B211" s="5" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>546</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>551</v>
+      </c>
+      <c r="B214" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>549</v>
+      </c>
+      <c r="B215" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -3768,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B215" sqref="A214:B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,7 +5478,7 @@
         <v>531</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -5466,6 +5519,38 @@
       </c>
       <c r="B211" s="5" t="s">
         <v>545</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>546</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>551</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>549</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3926E878-0B91-464D-9201-B98C95FF2EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3450" windowWidth="27000" windowHeight="17250" tabRatio="406"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="27000" windowHeight="17244" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="558">
   <si>
     <t>City</t>
   </si>
@@ -1688,12 +1689,27 @@
   </si>
   <si>
     <t>Kurs</t>
+  </si>
+  <si>
+    <t>Experiences</t>
+  </si>
+  <si>
+    <t>Erfahrungen</t>
+  </si>
+  <si>
+    <t>SingleDay</t>
+  </si>
+  <si>
+    <t>Single day</t>
+  </si>
+  <si>
+    <t>Einzeltag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1764,7 +1780,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2075,20 +2091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214:B215"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2104,7 +2120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -2112,7 +2128,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -2120,7 +2136,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -2136,7 +2152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -2144,7 +2160,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -2152,7 +2168,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2168,7 +2184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2176,7 +2192,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2184,7 +2200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2192,7 +2208,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2200,7 +2216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -2208,7 +2224,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2232,7 +2248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -2240,7 +2256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -2264,7 +2280,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2272,7 +2288,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -2280,7 +2296,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -2296,7 +2312,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2312,7 +2328,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -2376,7 +2392,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -2384,7 +2400,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -2400,7 +2416,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -2408,7 +2424,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -2432,7 +2448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -2440,7 +2456,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -2472,7 +2488,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -2480,7 +2496,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -2488,7 +2504,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2496,7 +2512,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2512,7 +2528,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -2536,7 +2552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2544,7 +2560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -2552,7 +2568,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2576,7 +2592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -2584,7 +2600,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -2592,7 +2608,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2608,7 +2624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2616,7 +2632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2632,7 +2648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -2648,7 +2664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2656,7 +2672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -2664,7 +2680,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -2680,7 +2696,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -2704,7 +2720,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -2712,7 +2728,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -2736,7 +2752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -2744,7 +2760,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -2752,7 +2768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -2760,7 +2776,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2768,7 +2784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -2776,7 +2792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -2792,7 +2808,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -2800,7 +2816,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -2808,7 +2824,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -2824,7 +2840,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -2832,7 +2848,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -2840,7 +2856,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -2848,7 +2864,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -2856,7 +2872,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -2872,7 +2888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -2880,7 +2896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -2888,7 +2904,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2896,7 +2912,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2904,7 +2920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -2912,7 +2928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,7 +2936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -2928,7 +2944,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2936,7 +2952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -2944,7 +2960,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -2952,7 +2968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -2960,7 +2976,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -2984,7 +3000,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -2992,7 +3008,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -3000,7 +3016,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -3008,7 +3024,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -3016,7 +3032,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -3032,7 +3048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -3040,7 +3056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -3048,7 +3064,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -3056,7 +3072,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -3064,7 +3080,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -3072,7 +3088,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -3080,7 +3096,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -3088,7 +3104,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -3096,7 +3112,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -3112,7 +3128,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -3120,7 +3136,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -3128,7 +3144,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3144,7 +3160,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3152,7 +3168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -3160,7 +3176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -3168,7 +3184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -3176,7 +3192,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -3184,7 +3200,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -3192,7 +3208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -3200,7 +3216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -3208,7 +3224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -3216,7 +3232,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -3224,7 +3240,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -3232,7 +3248,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3240,7 +3256,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -3248,7 +3264,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -3256,7 +3272,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -3264,7 +3280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -3272,7 +3288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -3280,7 +3296,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -3288,7 +3304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3296,7 +3312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -3304,7 +3320,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -3320,7 +3336,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -3336,7 +3352,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -3344,7 +3360,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -3352,7 +3368,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -3360,7 +3376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3368,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -3376,7 +3392,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -3384,7 +3400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -3392,7 +3408,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -3400,7 +3416,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -3408,7 +3424,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -3416,7 +3432,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -3440,7 +3456,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -3448,7 +3464,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3456,7 +3472,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3472,7 +3488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -3488,7 +3504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -3496,7 +3512,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -3504,7 +3520,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -3512,7 +3528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -3520,7 +3536,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -3528,7 +3544,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -3536,7 +3552,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3544,7 +3560,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -3552,7 +3568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -3560,7 +3576,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -3568,7 +3584,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -3576,7 +3592,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -3584,7 +3600,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -3592,7 +3608,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -3600,7 +3616,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3608,7 +3624,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3616,7 +3632,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -3624,7 +3640,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -3632,7 +3648,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -3640,7 +3656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -3656,7 +3672,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -3664,7 +3680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -3672,7 +3688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -3680,7 +3696,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -3688,7 +3704,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -3696,7 +3712,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -3704,7 +3720,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>522</v>
       </c>
@@ -3712,7 +3728,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -3720,7 +3736,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -3728,7 +3744,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -3736,7 +3752,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -3744,7 +3760,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -3752,7 +3768,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -3760,7 +3776,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -3768,7 +3784,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>544</v>
       </c>
@@ -3776,7 +3792,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>546</v>
       </c>
@@ -3784,7 +3800,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>532</v>
       </c>
@@ -3792,7 +3808,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -3800,7 +3816,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>549</v>
       </c>
@@ -3808,9 +3824,30 @@
         <v>549</v>
       </c>
     </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>553</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>555</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B198">
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
@@ -3820,20 +3857,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B215" sqref="A214:B215"/>
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3849,7 +3886,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -3857,7 +3894,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -3865,7 +3902,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -3873,7 +3910,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -3881,7 +3918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -3889,7 +3926,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -3897,7 +3934,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3905,7 +3942,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3913,7 +3950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3921,7 +3958,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3929,7 +3966,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3937,7 +3974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -3945,7 +3982,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -3953,7 +3990,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3961,7 +3998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3969,7 +4006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3977,7 +4014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -3985,7 +4022,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -3993,7 +4030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -4001,7 +4038,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -4009,7 +4046,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -4017,7 +4054,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -4025,7 +4062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -4033,7 +4070,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -4041,7 +4078,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -4049,7 +4086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -4057,7 +4094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4065,7 +4102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -4073,7 +4110,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -4081,7 +4118,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -4089,7 +4126,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -4097,7 +4134,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -4105,7 +4142,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -4113,7 +4150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -4121,7 +4158,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -4129,7 +4166,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -4137,7 +4174,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -4145,7 +4182,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -4153,7 +4190,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -4169,7 +4206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -4177,7 +4214,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -4185,7 +4222,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -4193,7 +4230,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -4201,7 +4238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -4209,7 +4246,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -4217,7 +4254,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -4225,7 +4262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -4233,7 +4270,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4241,7 +4278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -4249,7 +4286,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4257,7 +4294,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -4265,7 +4302,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -4273,7 +4310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -4281,7 +4318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -4289,7 +4326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -4297,7 +4334,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -4305,7 +4342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -4313,7 +4350,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -4321,7 +4358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -4329,7 +4366,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -4337,7 +4374,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4345,7 +4382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -4353,7 +4390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -4361,7 +4398,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4369,7 +4406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4377,7 +4414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -4385,7 +4422,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4393,7 +4430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -4401,7 +4438,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4409,7 +4446,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4417,7 +4454,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4425,7 +4462,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -4433,7 +4470,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -4441,7 +4478,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4449,7 +4486,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -4457,7 +4494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4465,7 +4502,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4473,7 +4510,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -4481,7 +4518,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -4489,7 +4526,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -4497,7 +4534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -4505,7 +4542,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -4513,7 +4550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4521,7 +4558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4529,7 +4566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -4537,7 +4574,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -4545,7 +4582,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -4553,7 +4590,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -4561,7 +4598,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -4569,7 +4606,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -4577,7 +4614,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -4585,7 +4622,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -4593,7 +4630,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -4601,7 +4638,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4609,7 +4646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -4617,7 +4654,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -4625,7 +4662,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -4633,7 +4670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -4641,7 +4678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4649,7 +4686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4657,7 +4694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -4665,7 +4702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4673,7 +4710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4681,7 +4718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -4689,7 +4726,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -4697,7 +4734,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -4705,7 +4742,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -4721,7 +4758,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -4729,7 +4766,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -4737,7 +4774,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4745,7 +4782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4753,7 +4790,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -4761,7 +4798,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -4769,7 +4806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -4777,7 +4814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -4785,7 +4822,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -4793,7 +4830,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -4801,7 +4838,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -4809,7 +4846,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -4817,7 +4854,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -4825,7 +4862,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -4833,7 +4870,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -4841,7 +4878,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -4849,7 +4886,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -4857,7 +4894,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -4865,7 +4902,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -4873,7 +4910,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -4881,7 +4918,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4889,7 +4926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -4897,7 +4934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -4905,7 +4942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -4913,7 +4950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -4921,7 +4958,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -4929,7 +4966,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -4937,7 +4974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4945,7 +4982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -4953,7 +4990,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -4961,7 +4998,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -4969,7 +5006,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -4977,7 +5014,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -4985,7 +5022,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -4993,7 +5030,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -5001,7 +5038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -5009,7 +5046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -5017,7 +5054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -5025,7 +5062,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -5033,7 +5070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -5041,7 +5078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -5049,7 +5086,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -5057,7 +5094,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -5065,7 +5102,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -5073,7 +5110,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -5081,7 +5118,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -5089,7 +5126,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -5097,7 +5134,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -5105,7 +5142,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -5121,7 +5158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -5129,7 +5166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -5137,7 +5174,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -5145,7 +5182,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -5153,7 +5190,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -5161,7 +5198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -5169,7 +5206,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -5177,7 +5214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -5185,7 +5222,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -5193,7 +5230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -5201,7 +5238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -5217,7 +5254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -5225,7 +5262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -5233,7 +5270,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -5241,7 +5278,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -5249,7 +5286,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -5257,7 +5294,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -5265,7 +5302,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -5273,7 +5310,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -5281,7 +5318,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -5289,7 +5326,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -5297,7 +5334,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -5305,7 +5342,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -5313,7 +5350,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -5321,7 +5358,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -5329,7 +5366,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -5337,7 +5374,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -5345,7 +5382,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -5353,7 +5390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -5361,7 +5398,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5369,7 +5406,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -5377,7 +5414,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -5385,7 +5422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -5393,7 +5430,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -5401,7 +5438,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -5409,7 +5446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -5417,7 +5454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -5425,7 +5462,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -5433,7 +5470,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -5441,7 +5478,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -5449,7 +5486,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>522</v>
       </c>
@@ -5457,7 +5494,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -5465,7 +5502,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -5473,7 +5510,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -5481,7 +5518,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -5489,7 +5526,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -5497,7 +5534,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -5505,7 +5542,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -5513,7 +5550,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>544</v>
       </c>
@@ -5521,7 +5558,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>546</v>
       </c>
@@ -5529,7 +5566,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>532</v>
       </c>
@@ -5537,7 +5574,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -5545,7 +5582,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>549</v>
       </c>
@@ -5553,9 +5590,22 @@
         <v>550</v>
       </c>
     </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>553</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23">
-    <sortState ref="A2:B198">
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3926E878-0B91-464D-9201-B98C95FF2EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32259D83-D5C4-4B74-9EEE-4682E0C1C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="27000" windowHeight="17244" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="561">
   <si>
     <t>City</t>
   </si>
@@ -1704,6 +1704,15 @@
   </si>
   <si>
     <t>Einzeltag</t>
+  </si>
+  <si>
+    <t>AcademicTitle</t>
+  </si>
+  <si>
+    <t>Academic title</t>
+  </si>
+  <si>
+    <t>Akademischer Titel</t>
   </si>
 </sst>
 </file>
@@ -2094,17 +2103,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218:B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="80.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="80.36328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2216,7 +2225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2248,7 +2257,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -2264,7 +2273,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2320,7 +2329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -2392,7 +2401,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -2568,7 +2577,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -2584,7 +2593,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -2608,7 +2617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -2680,7 +2689,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2688,7 +2697,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2736,7 +2745,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +2793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -2824,7 +2833,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -2864,7 +2873,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -2872,7 +2881,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -2888,7 +2897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -2928,7 +2937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -2960,7 +2969,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -2984,7 +2993,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -3008,7 +3017,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -3032,7 +3041,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -3040,7 +3049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -3048,7 +3057,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -3064,7 +3073,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -3072,7 +3081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -3104,7 +3113,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -3128,7 +3137,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -3136,7 +3145,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -3144,7 +3153,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -3152,7 +3161,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3160,7 +3169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -3192,7 +3201,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -3208,7 +3217,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -3224,7 +3233,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -3240,7 +3249,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -3248,7 +3257,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -3304,7 +3313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -3328,7 +3337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -3336,7 +3345,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -3344,7 +3353,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -3352,7 +3361,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3384,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -3400,7 +3409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -3408,7 +3417,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -3432,7 +3441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -3440,7 +3449,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3488,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -3504,7 +3513,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -3512,7 +3521,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -3536,7 +3545,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -3552,7 +3561,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3560,7 +3569,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -3576,7 +3585,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -3584,7 +3593,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -3608,7 +3617,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -3616,7 +3625,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -3640,7 +3649,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -3648,7 +3657,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -3656,7 +3665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -3664,7 +3673,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -3696,7 +3705,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -3712,7 +3721,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>522</v>
       </c>
@@ -3728,7 +3737,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -3768,7 +3777,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>544</v>
       </c>
@@ -3792,7 +3801,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>546</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>532</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>549</v>
       </c>
@@ -3824,7 +3833,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>553</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>555</v>
       </c>
@@ -3840,9 +3849,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>558</v>
+      </c>
       <c r="B218" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -3858,19 +3870,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3886,7 +3898,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -3918,7 +3930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -3934,7 +3946,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3958,7 +3970,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3966,7 +3978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3974,7 +3986,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3998,7 +4010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -4022,7 +4034,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -4030,7 +4042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -4062,7 +4074,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -4118,7 +4130,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -4126,7 +4138,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -4134,7 +4146,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -4142,7 +4154,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -4150,7 +4162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -4158,7 +4170,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -4174,7 +4186,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -4182,7 +4194,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -4222,7 +4234,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -4230,7 +4242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -4238,7 +4250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -4246,7 +4258,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -4262,7 +4274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4278,7 +4290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -4286,7 +4298,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4294,7 +4306,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -4302,7 +4314,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -4310,7 +4322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -4326,7 +4338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -4342,7 +4354,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -4350,7 +4362,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -4358,7 +4370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -4390,7 +4402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4406,7 +4418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4414,7 +4426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -4422,7 +4434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -4438,7 +4450,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4446,7 +4458,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4454,7 +4466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4462,7 +4474,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -4478,7 +4490,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4486,7 +4498,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -4494,7 +4506,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4502,7 +4514,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4510,7 +4522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -4526,7 +4538,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -4534,7 +4546,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -4550,7 +4562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -4574,7 +4586,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -4582,7 +4594,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -4606,7 +4618,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -4614,7 +4626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -4630,7 +4642,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -4638,7 +4650,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4646,7 +4658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -4654,7 +4666,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -4662,7 +4674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -4670,7 +4682,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -4678,7 +4690,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4686,7 +4698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4694,7 +4706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4710,7 +4722,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4718,7 +4730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -4734,7 +4746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -4750,7 +4762,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -4758,7 +4770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -4766,7 +4778,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -4798,7 +4810,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -4806,7 +4818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -4814,7 +4826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -4830,7 +4842,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -4846,7 +4858,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -4854,7 +4866,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -4862,7 +4874,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -4870,7 +4882,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -4894,7 +4906,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -4902,7 +4914,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -4918,7 +4930,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -4942,7 +4954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -4950,7 +4962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -4958,7 +4970,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -4966,7 +4978,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4982,7 +4994,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -4998,7 +5010,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -5014,7 +5026,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -5022,7 +5034,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -5030,7 +5042,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -5038,7 +5050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -5046,7 +5058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -5054,7 +5066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -5062,7 +5074,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -5078,7 +5090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -5086,7 +5098,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -5094,7 +5106,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -5102,7 +5114,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -5110,7 +5122,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -5118,7 +5130,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -5126,7 +5138,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -5134,7 +5146,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -5142,7 +5154,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -5158,7 +5170,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -5174,7 +5186,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -5182,7 +5194,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -5190,7 +5202,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -5198,7 +5210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -5206,7 +5218,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -5214,7 +5226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -5222,7 +5234,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -5230,7 +5242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -5238,7 +5250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -5246,7 +5258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -5262,7 +5274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -5270,7 +5282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -5278,7 +5290,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -5286,7 +5298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -5294,7 +5306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -5310,7 +5322,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -5318,7 +5330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -5334,7 +5346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -5358,7 +5370,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -5366,7 +5378,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -5390,7 +5402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5406,7 +5418,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -5422,7 +5434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -5430,7 +5442,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -5446,7 +5458,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -5454,7 +5466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -5462,7 +5474,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -5470,7 +5482,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -5478,7 +5490,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>522</v>
       </c>
@@ -5494,7 +5506,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -5502,7 +5514,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -5518,7 +5530,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -5534,7 +5546,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -5542,7 +5554,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -5550,7 +5562,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>544</v>
       </c>
@@ -5558,7 +5570,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>546</v>
       </c>
@@ -5566,7 +5578,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>532</v>
       </c>
@@ -5574,7 +5586,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -5582,7 +5594,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>549</v>
       </c>
@@ -5590,7 +5602,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>553</v>
       </c>
@@ -5598,9 +5610,20 @@
         <v>554</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>555</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>558</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Various\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32259D83-D5C4-4B74-9EEE-4682E0C1C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="3045" windowWidth="22500" windowHeight="14295" tabRatio="406"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="566">
   <si>
     <t>City</t>
   </si>
@@ -1713,12 +1712,27 @@
   </si>
   <si>
     <t>Akademischer Titel</t>
+  </si>
+  <si>
+    <t>Abroads</t>
+  </si>
+  <si>
+    <t>Abroad stays</t>
+  </si>
+  <si>
+    <t>Auslandaufenthalte</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Interesse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1789,7 +1803,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2100,20 +2114,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:B218"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
-    <col min="2" max="2" width="80.36328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2129,7 +2143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -2137,7 +2151,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -2145,7 +2159,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -2153,7 +2167,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -2161,7 +2175,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -2169,7 +2183,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -2177,7 +2191,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -2185,7 +2199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2201,7 +2215,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2225,7 +2239,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -2233,7 +2247,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2241,7 +2255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2249,7 +2263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2257,7 +2271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -2265,7 +2279,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -2273,7 +2287,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -2281,7 +2295,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -2289,7 +2303,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2297,7 +2311,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -2305,7 +2319,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -2321,7 +2335,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2329,7 +2343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2337,7 +2351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -2353,7 +2367,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -2361,7 +2375,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -2369,7 +2383,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -2377,7 +2391,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -2385,7 +2399,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2393,7 +2407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -2401,7 +2415,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -2409,7 +2423,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -2417,7 +2431,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -2425,7 +2439,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -2433,7 +2447,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2441,7 +2455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2449,7 +2463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -2457,7 +2471,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -2465,7 +2479,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2481,7 +2495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -2489,7 +2503,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -2497,7 +2511,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -2505,7 +2519,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -2513,7 +2527,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2521,7 +2535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -2529,7 +2543,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2537,7 +2551,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -2545,7 +2559,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2553,7 +2567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -2561,7 +2575,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -2577,7 +2591,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -2585,7 +2599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -2593,7 +2607,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2601,7 +2615,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -2609,7 +2623,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -2617,7 +2631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2625,7 +2639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2633,7 +2647,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2641,7 +2655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -2665,7 +2679,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,7 +2687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -2681,7 +2695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -2689,7 +2703,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2697,7 +2711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -2705,7 +2719,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -2713,7 +2727,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -2721,7 +2735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -2737,7 +2751,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2745,7 +2759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2753,7 +2767,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -2761,7 +2775,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -2769,7 +2783,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -2777,7 +2791,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -2785,7 +2799,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +2807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -2801,7 +2815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -2817,7 +2831,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -2833,7 +2847,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -2849,7 +2863,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -2857,7 +2871,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -2865,7 +2879,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -2873,7 +2887,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -2881,7 +2895,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2889,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -2905,7 +2919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2921,7 +2935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2929,7 +2943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -2937,7 +2951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -2945,7 +2959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -2953,7 +2967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2961,7 +2975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -2969,7 +2983,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -2977,7 +2991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -2993,7 +3007,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -3001,7 +3015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -3017,7 +3031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -3025,7 +3039,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -3033,7 +3047,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -3041,7 +3055,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -3057,7 +3071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -3065,7 +3079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -3073,7 +3087,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -3081,7 +3095,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -3089,7 +3103,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -3097,7 +3111,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -3105,7 +3119,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -3113,7 +3127,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -3121,7 +3135,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -3137,7 +3151,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -3153,7 +3167,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -3161,7 +3175,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3169,7 +3183,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3177,7 +3191,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -3193,7 +3207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -3201,7 +3215,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -3209,7 +3223,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -3217,7 +3231,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -3225,7 +3239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -3233,7 +3247,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -3241,7 +3255,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -3249,7 +3263,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -3257,7 +3271,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3265,7 +3279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -3273,7 +3287,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -3281,7 +3295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -3289,7 +3303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -3297,7 +3311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -3305,7 +3319,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3321,7 +3335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -3337,7 +3351,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -3345,7 +3359,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -3369,7 +3383,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -3385,7 +3399,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3393,7 +3407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -3401,7 +3415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -3417,7 +3431,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -3425,7 +3439,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -3433,7 +3447,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -3441,7 +3455,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -3449,7 +3463,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -3457,7 +3471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -3465,7 +3479,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -3473,7 +3487,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3489,7 +3503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3497,7 +3511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -3513,7 +3527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -3521,7 +3535,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -3529,7 +3543,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3569,7 +3583,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -3577,7 +3591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -3585,7 +3599,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -3593,7 +3607,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -3601,7 +3615,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -3609,7 +3623,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -3617,7 +3631,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -3625,7 +3639,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3633,7 +3647,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3641,7 +3655,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -3657,7 +3671,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -3665,7 +3679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -3673,7 +3687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -3681,7 +3695,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -3689,7 +3703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -3713,7 +3727,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -3721,7 +3735,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -3729,7 +3743,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>522</v>
       </c>
@@ -3737,7 +3751,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -3745,7 +3759,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -3753,7 +3767,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -3761,7 +3775,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -3769,7 +3783,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -3785,7 +3799,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -3793,7 +3807,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>544</v>
       </c>
@@ -3801,7 +3815,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>546</v>
       </c>
@@ -3809,7 +3823,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>532</v>
       </c>
@@ -3817,7 +3831,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -3825,7 +3839,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>549</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>553</v>
       </c>
@@ -3841,7 +3855,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>555</v>
       </c>
@@ -3849,7 +3863,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>558</v>
       </c>
@@ -3857,9 +3871,25 @@
         <v>559</v>
       </c>
     </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>561</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>564</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
@@ -3869,20 +3899,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3890,7 +3920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3898,7 +3928,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>479</v>
       </c>
@@ -3906,7 +3936,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>484</v>
       </c>
@@ -3914,7 +3944,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -3922,7 +3952,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -3930,7 +3960,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
@@ -3938,7 +3968,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -3946,7 +3976,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3954,7 +3984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3962,7 +3992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3970,7 +4000,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3978,7 +4008,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3986,7 +4016,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -3994,7 +4024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>476</v>
       </c>
@@ -4002,7 +4032,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -4010,7 +4040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -4018,7 +4048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -4026,7 +4056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -4034,7 +4064,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>428</v>
       </c>
@@ -4042,7 +4072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -4050,7 +4080,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>416</v>
       </c>
@@ -4058,7 +4088,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -4066,7 +4096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>291</v>
       </c>
@@ -4074,7 +4104,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -4082,7 +4112,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>497</v>
       </c>
@@ -4090,7 +4120,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -4098,7 +4128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -4106,7 +4136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4114,7 +4144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>448</v>
       </c>
@@ -4122,7 +4152,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -4130,7 +4160,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>267</v>
       </c>
@@ -4138,7 +4168,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>501</v>
       </c>
@@ -4146,7 +4176,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -4154,7 +4184,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -4162,7 +4192,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>444</v>
       </c>
@@ -4170,7 +4200,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -4178,7 +4208,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -4186,7 +4216,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -4194,7 +4224,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -4202,7 +4232,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4210,7 +4240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -4218,7 +4248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -4226,7 +4256,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>422</v>
       </c>
@@ -4234,7 +4264,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -4242,7 +4272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -4250,7 +4280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
@@ -4258,7 +4288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -4266,7 +4296,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -4274,7 +4304,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -4282,7 +4312,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4290,7 +4320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -4298,7 +4328,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4306,7 +4336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -4314,7 +4344,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -4322,7 +4352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -4330,7 +4360,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -4338,7 +4368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
@@ -4346,7 +4376,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -4354,7 +4384,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>456</v>
       </c>
@@ -4362,7 +4392,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -4370,7 +4400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -4378,7 +4408,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -4386,7 +4416,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4394,7 +4424,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -4402,7 +4432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -4410,7 +4440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4418,7 +4448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4426,7 +4456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>241</v>
       </c>
@@ -4434,7 +4464,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4442,7 +4472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -4450,7 +4480,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4458,7 +4488,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4466,7 +4496,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4474,7 +4504,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -4482,7 +4512,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -4490,7 +4520,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4498,7 +4528,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>298</v>
       </c>
@@ -4506,7 +4536,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4514,7 +4544,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4522,7 +4552,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -4530,7 +4560,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -4538,7 +4568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
@@ -4546,7 +4576,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -4554,7 +4584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -4562,7 +4592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4570,7 +4600,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4578,7 +4608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>468</v>
       </c>
@@ -4586,7 +4616,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>470</v>
       </c>
@@ -4594,7 +4624,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>471</v>
       </c>
@@ -4602,7 +4632,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>153</v>
       </c>
@@ -4610,7 +4640,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>410</v>
       </c>
@@ -4618,7 +4648,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>412</v>
       </c>
@@ -4626,7 +4656,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -4634,7 +4664,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -4642,7 +4672,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>408</v>
       </c>
@@ -4650,7 +4680,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4658,7 +4688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -4666,7 +4696,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -4674,7 +4704,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -4682,7 +4712,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -4690,7 +4720,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4698,7 +4728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4706,7 +4736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -4714,7 +4744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4722,7 +4752,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4730,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -4738,7 +4768,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -4746,7 +4776,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>441</v>
       </c>
@@ -4754,7 +4784,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -4762,7 +4792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -4770,7 +4800,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -4778,7 +4808,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -4786,7 +4816,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4794,7 +4824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4802,7 +4832,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -4810,7 +4840,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>94</v>
       </c>
@@ -4818,7 +4848,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,7 +4856,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -4834,7 +4864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -4842,7 +4872,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -4850,7 +4880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>425</v>
       </c>
@@ -4858,7 +4888,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -4866,7 +4896,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -4874,7 +4904,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -4882,7 +4912,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -4890,7 +4920,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>311</v>
       </c>
@@ -4898,7 +4928,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -4906,7 +4936,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -4914,7 +4944,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -4922,7 +4952,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -4930,7 +4960,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4938,7 +4968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -4946,7 +4976,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -4954,7 +4984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -4962,7 +4992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
@@ -4970,7 +5000,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>393</v>
       </c>
@@ -4978,7 +5008,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -4986,7 +5016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4994,7 +5024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -5002,7 +5032,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
@@ -5010,7 +5040,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -5018,7 +5048,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
@@ -5026,7 +5056,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
@@ -5034,7 +5064,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -5042,7 +5072,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
@@ -5050,7 +5080,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -5058,7 +5088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -5066,7 +5096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -5074,7 +5104,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
@@ -5082,7 +5112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -5090,7 +5120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -5098,7 +5128,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -5106,7 +5136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>432</v>
       </c>
@@ -5114,7 +5144,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -5122,7 +5152,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -5130,7 +5160,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -5138,7 +5168,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>370</v>
       </c>
@@ -5146,7 +5176,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>112</v>
       </c>
@@ -5154,7 +5184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -5162,7 +5192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -5170,7 +5200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -5178,7 +5208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -5186,7 +5216,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -5194,7 +5224,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -5202,7 +5232,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>228</v>
       </c>
@@ -5210,7 +5240,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
@@ -5218,7 +5248,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -5226,7 +5256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>237</v>
       </c>
@@ -5234,7 +5264,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -5242,7 +5272,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>114</v>
       </c>
@@ -5250,7 +5280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -5258,7 +5288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -5266,7 +5296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -5274,7 +5304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>111</v>
       </c>
@@ -5282,7 +5312,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>385</v>
       </c>
@@ -5290,7 +5320,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -5298,7 +5328,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
@@ -5306,7 +5336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>403</v>
       </c>
@@ -5314,7 +5344,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>405</v>
       </c>
@@ -5322,7 +5352,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -5330,7 +5360,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -5338,7 +5368,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>121</v>
       </c>
@@ -5346,7 +5376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -5354,7 +5384,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -5362,7 +5392,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
@@ -5370,7 +5400,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>305</v>
       </c>
@@ -5378,7 +5408,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -5386,7 +5416,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -5394,7 +5424,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -5402,7 +5432,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -5410,7 +5440,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5418,7 +5448,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>449</v>
       </c>
@@ -5426,7 +5456,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>89</v>
       </c>
@@ -5434,7 +5464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
@@ -5442,7 +5472,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -5450,7 +5480,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -5458,7 +5488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -5466,7 +5496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>511</v>
       </c>
@@ -5474,7 +5504,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>512</v>
       </c>
@@ -5482,7 +5512,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -5490,7 +5520,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>520</v>
       </c>
@@ -5498,7 +5528,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>522</v>
       </c>
@@ -5506,7 +5536,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -5514,7 +5544,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -5522,7 +5552,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>531</v>
       </c>
@@ -5530,7 +5560,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>536</v>
       </c>
@@ -5538,7 +5568,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>537</v>
       </c>
@@ -5546,7 +5576,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>540</v>
       </c>
@@ -5554,7 +5584,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>542</v>
       </c>
@@ -5562,7 +5592,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>544</v>
       </c>
@@ -5570,7 +5600,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>546</v>
       </c>
@@ -5578,7 +5608,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>532</v>
       </c>
@@ -5586,7 +5616,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -5594,7 +5624,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>549</v>
       </c>
@@ -5602,7 +5632,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>553</v>
       </c>
@@ -5610,7 +5640,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>555</v>
       </c>
@@ -5618,7 +5648,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>558</v>
       </c>
@@ -5626,9 +5656,25 @@
         <v>560</v>
       </c>
     </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>561</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>564</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
+  <autoFilter ref="A1:B23">
+    <sortState ref="A2:B198">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13BB17F-C59A-4437-BBEF-2F93D0B12EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE754FB5-EF1D-4991-9BC3-791CD67D7F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="582">
   <si>
     <t>City</t>
   </si>
@@ -1761,6 +1761,21 @@
   </si>
   <si>
     <t>SumOfCVHits</t>
+  </si>
+  <si>
+    <t>YearsOld</t>
+  </si>
+  <si>
+    <t>years old</t>
+  </si>
+  <si>
+    <t>Jahre alt</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Aus</t>
   </si>
 </sst>
 </file>
@@ -2149,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B223"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223:B223"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3943,6 +3958,22 @@
       </c>
       <c r="B223" s="1" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -3958,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B223"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5754,6 +5785,22 @@
         <v>575</v>
       </c>
     </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE754FB5-EF1D-4991-9BC3-791CD67D7F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E642C5E-399D-4E96-A4A6-15A45F98B932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="589">
   <si>
     <t>City</t>
   </si>
@@ -1776,6 +1776,27 @@
   </si>
   <si>
     <t>Aus</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Tage</t>
+  </si>
+  <si>
+    <t>AddToTop</t>
+  </si>
+  <si>
+    <t>Add to top</t>
+  </si>
+  <si>
+    <t>Nach oben erweitern</t>
   </si>
 </sst>
 </file>
@@ -2164,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3974,6 +3995,30 @@
       </c>
       <c r="B225" s="5" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -3989,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5801,6 +5846,30 @@
         <v>581</v>
       </c>
     </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E642C5E-399D-4E96-A4A6-15A45F98B932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BC2359-5717-4AAA-983C-89ED745A5B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="597">
   <si>
     <t>City</t>
   </si>
@@ -1607,9 +1607,6 @@
     <t>EnterSkill</t>
   </si>
   <si>
-    <t>Bitte drücken Sie die Enter-Taste um einen neuen Skill einzufügen</t>
-  </si>
-  <si>
     <t>Please press Enter to insert a new Skill</t>
   </si>
   <si>
@@ -1796,7 +1793,34 @@
     <t>Add to top</t>
   </si>
   <si>
-    <t>Nach oben erweitern</t>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Errungenschaft</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Kompetenzen</t>
+  </si>
+  <si>
+    <t>Kompetenz</t>
+  </si>
+  <si>
+    <t>SocialLink</t>
+  </si>
+  <si>
+    <t>Social link</t>
+  </si>
+  <si>
+    <t>Soziale Verbindung</t>
+  </si>
+  <si>
+    <t>Bitte drücken Sie die Enter-Taste um eine neue Kompetenz einzufügen</t>
+  </si>
+  <si>
+    <t>Oben erweitern</t>
   </si>
 </sst>
 </file>
@@ -2185,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2215,26 +2239,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2375,18 +2399,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2583,18 +2607,18 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2754,7 +2778,7 @@
         <v>524</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2783,10 +2807,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2863,10 +2887,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2927,10 +2951,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3007,10 +3031,10 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -3191,10 +3215,10 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -3263,18 +3287,18 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -3463,10 +3487,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3487,18 +3511,18 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -3695,10 +3719,10 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>553</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -3919,10 +3943,10 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -3975,50 +3999,74 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B228" s="5" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>587</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -4034,9 +4082,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
       <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
@@ -4064,26 +4112,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4224,18 +4272,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4432,18 +4480,18 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>549</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>547</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4603,7 +4651,7 @@
         <v>524</v>
       </c>
       <c r="B70" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -4632,10 +4680,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>551</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -4712,10 +4760,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>562</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -4776,10 +4824,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>542</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4856,10 +4904,10 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>544</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -5040,10 +5088,10 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -5112,18 +5160,18 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>565</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -5312,10 +5360,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>568</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -5336,18 +5384,18 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -5544,10 +5592,10 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -5555,7 +5603,7 @@
         <v>227</v>
       </c>
       <c r="B189" t="s">
-        <v>227</v>
+        <v>590</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -5768,10 +5816,10 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -5824,50 +5872,74 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BC2359-5717-4AAA-983C-89ED745A5B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624B46D-7405-420F-BB19-D45F96BD2238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,7 +1820,7 @@
     <t>Bitte drücken Sie die Enter-Taste um eine neue Kompetenz einzufügen</t>
   </si>
   <si>
-    <t>Oben erweitern</t>
+    <t>Nach oben erweitern</t>
   </si>
 </sst>
 </file>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624B46D-7405-420F-BB19-D45F96BD2238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727CB42F-13FB-47D2-8301-8A6EF8C2A723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="601">
   <si>
     <t>City</t>
   </si>
@@ -767,9 +767,6 @@
     <t>Startseite</t>
   </si>
   <si>
-    <t>AdText2</t>
-  </si>
-  <si>
     <t>Want to improve your curriculum vitae? No problem - with VITAE you present yourself in the best possible light. Create a free account now!</t>
   </si>
   <si>
@@ -1502,18 +1499,12 @@
     <t>No results for {0}</t>
   </si>
   <si>
-    <t>AdText1b</t>
-  </si>
-  <si>
     <t>Präsentieren Sie sich im besten Licht</t>
   </si>
   <si>
     <t>Present yourself in the best light</t>
   </si>
   <si>
-    <t>AdText1a</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
@@ -1821,6 +1812,27 @@
   </si>
   <si>
     <t>Nach oben erweitern</t>
+  </si>
+  <si>
+    <t>AdTextA1</t>
+  </si>
+  <si>
+    <t>AdTextA2</t>
+  </si>
+  <si>
+    <t>AdTextB1</t>
+  </si>
+  <si>
+    <t>AdTextA0</t>
+  </si>
+  <si>
+    <t>AdTextB0</t>
+  </si>
+  <si>
+    <t>Zeigen Sie Ihr Können</t>
+  </si>
+  <si>
+    <t>Show off your skills</t>
   </si>
 </sst>
 </file>
@@ -2209,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="B232" sqref="A232:B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2239,50 +2251,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2295,26 +2307,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2359,10 +2371,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2399,74 +2411,74 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2487,10 +2499,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2503,10 +2515,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2519,26 +2531,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -2551,42 +2563,42 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2607,34 +2619,34 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B50" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,10 +2675,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2679,10 +2691,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2695,26 +2707,26 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2743,26 +2755,26 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2775,18 +2787,18 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2807,18 +2819,18 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2887,10 +2899,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2903,58 +2915,58 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>351</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3031,34 +3043,34 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,42 +3083,42 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -3119,18 +3131,18 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -3215,26 +3227,26 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -3247,10 +3259,10 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -3279,26 +3291,26 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -3327,98 +3339,98 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -3439,10 +3451,10 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -3455,18 +3467,18 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -3487,10 +3499,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3511,50 +3523,50 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -3583,10 +3595,10 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,58 +3619,58 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>366</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>377</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -3695,34 +3707,34 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -3807,18 +3819,18 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>383</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,18 +3843,18 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -3871,50 +3883,50 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -3943,18 +3955,18 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -3967,18 +3979,18 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -3999,74 +4011,82 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B232" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4082,10 +4102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4107,55 +4127,55 @@
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4168,26 +4188,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>493</v>
+        <v>597</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>594</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>245</v>
+        <v>598</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4232,10 +4252,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4272,23 +4292,23 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -4296,50 +4316,50 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" t="s">
         <v>434</v>
-      </c>
-      <c r="B26" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B27" t="s">
         <v>415</v>
-      </c>
-      <c r="B27" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
         <v>290</v>
-      </c>
-      <c r="B29" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4360,10 +4380,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4376,10 +4396,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4392,26 +4412,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4424,42 +4444,42 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4480,34 +4500,34 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4536,10 +4556,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4552,10 +4572,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4568,26 +4588,26 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -4616,26 +4636,26 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -4648,18 +4668,18 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -4680,18 +4700,18 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -4760,10 +4780,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -4776,58 +4796,58 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4904,34 +4924,34 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -4944,42 +4964,42 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B110" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B111" t="s">
         <v>407</v>
-      </c>
-      <c r="B111" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -4992,18 +5012,18 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -5088,26 +5108,26 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B126" t="s">
         <v>440</v>
-      </c>
-      <c r="B126" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B127" t="s">
         <v>418</v>
-      </c>
-      <c r="B127" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -5120,10 +5140,10 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -5152,26 +5172,26 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -5200,98 +5220,98 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" t="s">
         <v>261</v>
-      </c>
-      <c r="B142" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B150" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -5312,10 +5332,10 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -5328,18 +5348,18 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -5360,10 +5380,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -5384,50 +5404,50 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B165" t="s">
         <v>274</v>
-      </c>
-      <c r="B165" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B167" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -5456,10 +5476,10 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -5480,58 +5500,58 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>372</v>
+      </c>
+      <c r="B174" t="s">
         <v>373</v>
-      </c>
-      <c r="B174" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B176" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B180" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -5568,34 +5588,34 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B185" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -5603,7 +5623,7 @@
         <v>227</v>
       </c>
       <c r="B189" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -5680,18 +5700,18 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B199" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B200" t="s">
         <v>429</v>
-      </c>
-      <c r="B200" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -5704,18 +5724,18 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" t="s">
         <v>402</v>
-      </c>
-      <c r="B202" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -5744,50 +5764,50 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B208" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B209" t="s">
         <v>388</v>
-      </c>
-      <c r="B209" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -5816,18 +5836,18 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B217" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -5840,18 +5860,18 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -5872,74 +5892,82 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B232" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727CB42F-13FB-47D2-8301-8A6EF8C2A723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458FD32F-F034-4176-93A8-45231D4FC647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="607">
   <si>
     <t>City</t>
   </si>
@@ -1833,6 +1833,24 @@
   </si>
   <si>
     <t>Show off your skills</t>
+  </si>
+  <si>
+    <t>UnsafedChanges</t>
+  </si>
+  <si>
+    <t>Sie haben Ihre Änderungen noch nicht gespeichert. Möchten Sie fortfahren?</t>
+  </si>
+  <si>
+    <t>You have unsaved changes. Do you want to continue?</t>
+  </si>
+  <si>
+    <t>YearOld</t>
+  </si>
+  <si>
+    <t>Jahr alt</t>
+  </si>
+  <si>
+    <t>Year old</t>
   </si>
 </sst>
 </file>
@@ -2221,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B232" sqref="A232:B232"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B234" sqref="A234:B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4087,6 +4105,22 @@
       </c>
       <c r="B232" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4102,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234:B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5970,6 +6004,22 @@
         <v>599</v>
       </c>
     </row>
+    <row r="233" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458FD32F-F034-4176-93A8-45231D4FC647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC877BF0-EA8E-4C26-ABD0-9C2433740655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="618">
   <si>
     <t>City</t>
   </si>
@@ -1851,6 +1851,39 @@
   </si>
   <si>
     <t>Year old</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>Jahre</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Monate</t>
+  </si>
+  <si>
+    <t>Additional info</t>
+  </si>
+  <si>
+    <t>Erweiterte Angaben</t>
+  </si>
+  <si>
+    <t>AboutInfo</t>
   </si>
 </sst>
 </file>
@@ -2239,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B234" sqref="A234:B234"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,7 +2297,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4121,6 +4154,46 @@
       </c>
       <c r="B234" s="1" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4136,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234:B234"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4161,7 +4234,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>485</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -6018,6 +6091,46 @@
       </c>
       <c r="B234" s="1" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC877BF0-EA8E-4C26-ABD0-9C2433740655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C602BF4-CBCF-4893-8AA4-81D68E59D228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="620">
   <si>
     <t>City</t>
   </si>
@@ -1884,6 +1884,12 @@
   </si>
   <si>
     <t>AboutInfo</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>Verein / Club</t>
   </si>
 </sst>
 </file>
@@ -2272,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4194,6 +4200,14 @@
       </c>
       <c r="B239" s="5" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>618</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4209,9 +4223,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+    <sheetView topLeftCell="A232" workbookViewId="0">
       <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
@@ -6133,6 +6147,14 @@
         <v>485</v>
       </c>
     </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>618</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C602BF4-CBCF-4893-8AA4-81D68E59D228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2823E05-25F2-44D1-9421-C0EF8874F7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="625">
   <si>
     <t>City</t>
   </si>
@@ -1890,6 +1890,21 @@
   </si>
   <si>
     <t>Verein / Club</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Verstecken</t>
+  </si>
+  <si>
+    <t>HideReference</t>
+  </si>
+  <si>
+    <t>Referenz verstecken</t>
+  </si>
+  <si>
+    <t>Hide reference</t>
   </si>
 </sst>
 </file>
@@ -2278,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B240"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4208,6 +4223,22 @@
       </c>
       <c r="B240" s="5" t="s">
         <v>618</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -4223,10 +4254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B240"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6155,6 +6186,22 @@
         <v>619</v>
       </c>
     </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2823E05-25F2-44D1-9421-C0EF8874F7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D84562-67B6-4938-AB74-90F2C04547B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="628">
   <si>
     <t>City</t>
   </si>
@@ -1905,6 +1905,15 @@
   </si>
   <si>
     <t>Hide reference</t>
+  </si>
+  <si>
+    <t>OnRequest</t>
+  </si>
+  <si>
+    <t>On request</t>
+  </si>
+  <si>
+    <t>Auf Anfrage</t>
   </si>
 </sst>
 </file>
@@ -2293,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4239,6 +4248,14 @@
       </c>
       <c r="B242" s="5" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -4254,10 +4271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6202,6 +6219,14 @@
         <v>623</v>
       </c>
     </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D84562-67B6-4938-AB74-90F2C04547B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB25BCB-1DD7-40C9-AE09-3A142512A651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="638">
   <si>
     <t>City</t>
   </si>
@@ -1914,6 +1914,36 @@
   </si>
   <si>
     <t>Auf Anfrage</t>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>Elemente zuklappen</t>
+  </si>
+  <si>
+    <t>Collapse items</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>ShortIdentifier</t>
+  </si>
+  <si>
+    <t>Kurze ID</t>
+  </si>
+  <si>
+    <t>LongIdentifier</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Short ID</t>
   </si>
 </sst>
 </file>
@@ -2302,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4256,6 +4286,38 @@
       </c>
       <c r="B243" s="5" t="s">
         <v>626</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>633</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -4271,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6227,6 +6289,42 @@
         <v>627</v>
       </c>
     </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>633</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1"/>
+      <c r="B248" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B222">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB25BCB-1DD7-40C9-AE09-3A142512A651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD408A1-6C1B-44F5-99BA-AA55A1F1D849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="650" yWindow="1560" windowWidth="22500" windowHeight="14300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="657">
   <si>
     <t>City</t>
   </si>
@@ -1820,9 +1820,6 @@
     <t>AdTextA2</t>
   </si>
   <si>
-    <t>AdTextB1</t>
-  </si>
-  <si>
     <t>AdTextA0</t>
   </si>
   <si>
@@ -1944,6 +1941,66 @@
   </si>
   <si>
     <t>Short ID</t>
+  </si>
+  <si>
+    <t>LanguageVersions</t>
+  </si>
+  <si>
+    <t>Language versions</t>
+  </si>
+  <si>
+    <t>Sprachversionen</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Importieren</t>
+  </si>
+  <si>
+    <t>CopyValues</t>
+  </si>
+  <si>
+    <t>Copy values</t>
+  </si>
+  <si>
+    <t>Copy Values</t>
+  </si>
+  <si>
+    <t>Werte kopieren</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Kopieren</t>
+  </si>
+  <si>
+    <t>CopyValuesDescription</t>
+  </si>
+  <si>
+    <t>Copies all values from the first language</t>
+  </si>
+  <si>
+    <t>Kopiert alle Werte von der ersten Sprache</t>
+  </si>
+  <si>
+    <t>CurriculumLanguage</t>
+  </si>
+  <si>
+    <t>Sprachversion</t>
+  </si>
+  <si>
+    <t>Curriculum language</t>
+  </si>
+  <si>
+    <t>CVLanguage</t>
+  </si>
+  <si>
+    <t>CV language</t>
+  </si>
+  <si>
+    <t>CV Sprache</t>
   </si>
 </sst>
 </file>
@@ -2332,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246:B247"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2357,7 +2414,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2418,7 +2475,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>246</v>
@@ -2426,7 +2483,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>490</v>
@@ -2434,7 +2491,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>245</v>
@@ -4197,60 +4254,60 @@
         <v>595</v>
       </c>
       <c r="B232" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>49</v>
@@ -4258,66 +4315,122 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B247" s="5" t="s">
-        <v>636</v>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246:B247"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254:B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4358,7 +4471,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4419,7 +4532,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B10" t="s">
         <v>457</v>
@@ -4435,7 +4548,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
         <v>252</v>
@@ -6198,60 +6311,60 @@
         <v>595</v>
       </c>
       <c r="B232" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>485</v>
@@ -6259,71 +6372,123 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>617</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>632</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B247" s="5" t="s">
-        <v>636</v>
-      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="1"/>
-      <c r="B248" s="5"/>
+      <c r="A248" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0000-000001000000}">

--- a/Vitae/Library/Resources/SharedResource.xlsx
+++ b/Vitae/Library/Resources/SharedResource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Vitae\Library\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD408A1-6C1B-44F5-99BA-AA55A1F1D849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F02516-64DF-4CFF-B742-9B19044127C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookVi